--- a/Fase I - Planeacion y Riesgos/3000 Conocimiento del negocio/4001 Revision analitica preliminar.xlsx
+++ b/Fase I - Planeacion y Riesgos/3000 Conocimiento del negocio/4001 Revision analitica preliminar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase I - Planeacion y Riesgos\3000 Conocimiento del negocio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE5634-A44E-4AF6-A3B0-C7D6A932CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDA2C17-A2F6-4371-A0F8-C01440CCC33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programa" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1044">
   <si>
     <t xml:space="preserve"> ACTIVOS</t>
   </si>
@@ -3142,6 +3142,36 @@
   </si>
   <si>
     <t>PC</t>
+  </si>
+  <si>
+    <t>Ganancia acumulada periodos ant.</t>
+  </si>
+  <si>
+    <t>Resultados adopion NIIF</t>
+  </si>
+  <si>
+    <t>Correccion anios anteriores</t>
+  </si>
+  <si>
+    <t>Superavit x revalorizacion</t>
+  </si>
+  <si>
+    <t>Ganancias y perdidas actuariales</t>
+  </si>
+  <si>
+    <t>Ganancia por impuesto diferido</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Total resultados acumulados</t>
+  </si>
+  <si>
+    <t>Cifras según informe</t>
+  </si>
+  <si>
+    <t>DIF</t>
   </si>
 </sst>
 </file>
@@ -3158,7 +3188,7 @@
     <numFmt numFmtId="168" formatCode="0.00&quot; &quot;%"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3327,20 +3357,27 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
     <font>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="TAHOMA"/>
       <family val="2"/>
@@ -3378,7 +3415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -3547,9 +3584,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3566,7 +3620,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3686,23 +3740,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3719,13 +3777,10 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3743,6 +3798,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4394,22 +4450,22 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="37"/>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="117" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
       <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16">
@@ -4435,23 +4491,23 @@
       <c r="B4" s="41" t="s">
         <v>441</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="C4" s="115" t="s">
         <v>442</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="110" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="112" t="s">
         <v>443</v>
       </c>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
       <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16">
@@ -4459,25 +4515,25 @@
       <c r="B5" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="115" t="s">
         <v>445</v>
       </c>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="110" t="s">
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="112" t="s">
         <v>446</v>
       </c>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="112" t="s">
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="114" t="s">
         <v>447</v>
       </c>
-      <c r="O5" s="112"/>
+      <c r="O5" s="114"/>
       <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16">
@@ -4491,15 +4547,15 @@
       <c r="H6" s="42"/>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
-      <c r="K6" s="110" t="s">
+      <c r="K6" s="112" t="s">
         <v>448</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="111">
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="113">
         <v>44134</v>
       </c>
-      <c r="O6" s="111"/>
+      <c r="O6" s="113"/>
       <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16">
@@ -4513,15 +4569,15 @@
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
-      <c r="K7" s="110" t="s">
+      <c r="K7" s="112" t="s">
         <v>449</v>
       </c>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="112" t="s">
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="114" t="s">
         <v>450</v>
       </c>
-      <c r="O7" s="112"/>
+      <c r="O7" s="114"/>
       <c r="P7" s="40"/>
     </row>
     <row r="8" spans="1:16">
@@ -4529,23 +4585,23 @@
       <c r="B8" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="115" t="s">
         <v>452</v>
       </c>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="110" t="s">
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="112" t="s">
         <v>448</v>
       </c>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
       <c r="P8" s="40"/>
     </row>
     <row r="9" spans="1:16">
@@ -4954,17 +5010,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.7109375" customWidth="1"/>
   </cols>
@@ -4985,8 +5041,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="D4" s="30">
-        <f>+D14-'ESF21'!C11</f>
+      <c r="C4" s="30">
+        <f>+C14-'ESF21'!C11</f>
         <v>0</v>
       </c>
     </row>
@@ -4995,10 +5051,10 @@
         <v>111</v>
       </c>
       <c r="C5" s="62">
+        <v>44440</v>
+      </c>
+      <c r="D5" s="62">
         <v>44166</v>
-      </c>
-      <c r="D5" s="62">
-        <v>44440</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>113</v>
@@ -5025,18 +5081,18 @@
         <v>112</v>
       </c>
       <c r="C7" s="15">
-        <v>777264</v>
-      </c>
-      <c r="D7" s="15">
         <f>+'ESF21'!C12</f>
         <v>1722300.75</v>
       </c>
+      <c r="D7" s="15">
+        <v>777264</v>
+      </c>
       <c r="E7" s="15">
-        <f>+D7-C7</f>
+        <f t="shared" ref="E7:E19" si="0">+C7-D7</f>
         <v>945036.75</v>
       </c>
       <c r="F7" s="28">
-        <f>+E7/C7</f>
+        <f t="shared" ref="F7:F19" si="1">+E7/D7</f>
         <v>1.2158504060396467</v>
       </c>
       <c r="G7" s="14"/>
@@ -5046,18 +5102,18 @@
         <v>944</v>
       </c>
       <c r="C8" s="15">
-        <v>4266845</v>
-      </c>
-      <c r="D8" s="15">
         <f>+'ESF21'!C27+'ESF21'!C69</f>
         <v>6242602.8799999999</v>
       </c>
+      <c r="D8" s="15">
+        <v>4266845</v>
+      </c>
       <c r="E8" s="15">
-        <f>+D8-C8</f>
+        <f t="shared" si="0"/>
         <v>1975757.88</v>
       </c>
       <c r="F8" s="28">
-        <f t="shared" ref="F8:F19" si="0">+E8/C8</f>
+        <f t="shared" si="1"/>
         <v>0.46304889912804426</v>
       </c>
       <c r="G8" s="14"/>
@@ -5066,13 +5122,21 @@
       <c r="B9" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68">
+      <c r="C9" s="68">
         <f>+'ESF21'!C38</f>
         <v>105408.18</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="68">
+        <v>155431</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>-50022.820000000007</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="1"/>
+        <v>-0.32183296768340941</v>
+      </c>
       <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
@@ -5080,19 +5144,20 @@
         <v>945</v>
       </c>
       <c r="C10" s="15">
-        <v>422041</v>
-      </c>
-      <c r="D10" s="15">
         <f>+'ESF21'!C45+'ESF21'!C39</f>
         <v>1659426.73</v>
       </c>
+      <c r="D10" s="15">
+        <f>422041-155431</f>
+        <v>266610</v>
+      </c>
       <c r="E10" s="15">
-        <f t="shared" ref="E10:E19" si="1">+D10-C10</f>
-        <v>1237385.73</v>
+        <f t="shared" si="0"/>
+        <v>1392816.73</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" si="0"/>
-        <v>2.9319088192853302</v>
+        <f t="shared" si="1"/>
+        <v>5.2241728742357747</v>
       </c>
       <c r="G10" s="14"/>
     </row>
@@ -5101,18 +5166,18 @@
         <v>439</v>
       </c>
       <c r="C11" s="15">
-        <v>49446</v>
-      </c>
-      <c r="D11" s="15">
         <f>+'ESF21'!C120</f>
         <v>690681.51</v>
       </c>
+      <c r="D11" s="15">
+        <v>49446</v>
+      </c>
       <c r="E11" s="15">
+        <f t="shared" si="0"/>
+        <v>641235.51</v>
+      </c>
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
-        <v>641235.51</v>
-      </c>
-      <c r="F11" s="28">
-        <f t="shared" si="0"/>
         <v>12.968400072806698</v>
       </c>
       <c r="G11" s="14"/>
@@ -5122,18 +5187,18 @@
         <v>114</v>
       </c>
       <c r="C12" s="15">
-        <v>6463705</v>
-      </c>
-      <c r="D12" s="15">
         <f>+'ESF21'!C72</f>
         <v>5410050.6699999999</v>
       </c>
+      <c r="D12" s="15">
+        <v>6463705</v>
+      </c>
       <c r="E12" s="15">
+        <f t="shared" si="0"/>
+        <v>-1053654.33</v>
+      </c>
+      <c r="F12" s="28">
         <f t="shared" si="1"/>
-        <v>-1053654.33</v>
-      </c>
-      <c r="F12" s="28">
-        <f t="shared" si="0"/>
         <v>-0.1630108939068228</v>
       </c>
       <c r="G12" s="14"/>
@@ -5143,18 +5208,18 @@
         <v>712</v>
       </c>
       <c r="C13" s="15">
-        <v>20360</v>
-      </c>
-      <c r="D13" s="15">
         <f>+'ESF21'!C113+'ESF21'!C137</f>
         <v>1734.7</v>
       </c>
+      <c r="D13" s="15">
+        <v>20360</v>
+      </c>
       <c r="E13" s="15">
+        <f t="shared" si="0"/>
+        <v>-18625.3</v>
+      </c>
+      <c r="F13" s="28">
         <f t="shared" si="1"/>
-        <v>-18625.3</v>
-      </c>
-      <c r="F13" s="28">
-        <f t="shared" si="0"/>
         <v>-0.91479862475442042</v>
       </c>
       <c r="G13" s="14"/>
@@ -5165,18 +5230,18 @@
       </c>
       <c r="C14" s="12">
         <f>SUM(C7:C13)</f>
-        <v>11999661</v>
+        <v>15832205.419999998</v>
       </c>
       <c r="D14" s="12">
         <f>SUM(D7:D13)</f>
-        <v>15832205.419999998</v>
+        <v>11999661</v>
       </c>
       <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>3832544.4199999981</v>
+      </c>
+      <c r="F14" s="28">
         <f t="shared" si="1"/>
-        <v>3832544.4199999981</v>
-      </c>
-      <c r="F14" s="28">
-        <f t="shared" si="0"/>
         <v>0.31938772436987994</v>
       </c>
       <c r="G14" s="14"/>
@@ -5186,18 +5251,18 @@
         <v>713</v>
       </c>
       <c r="C15" s="18">
-        <v>11324535</v>
-      </c>
-      <c r="D15" s="18">
         <f>+'ESF21'!C142+'ESF21'!C146</f>
         <v>12322614.379999999</v>
       </c>
+      <c r="D15" s="18">
+        <v>11324535</v>
+      </c>
       <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>998079.37999999896</v>
+      </c>
+      <c r="F15" s="28">
         <f t="shared" si="1"/>
-        <v>998079.37999999896</v>
-      </c>
-      <c r="F15" s="28">
-        <f t="shared" si="0"/>
         <v>8.8134248337790377E-2</v>
       </c>
       <c r="G15" s="14"/>
@@ -5207,19 +5272,19 @@
         <v>947</v>
       </c>
       <c r="C16" s="15">
+        <f>+'ESF21'!C156</f>
+        <v>-4417437.57</v>
+      </c>
+      <c r="D16" s="15">
         <f>+'ESF20'!E124</f>
         <v>-4638410.72</v>
       </c>
-      <c r="D16" s="15">
-        <f>+'ESF21'!C156</f>
-        <v>-4417437.57</v>
-      </c>
       <c r="E16" s="15">
-        <f t="shared" ref="E16" si="2">+D16-C16</f>
+        <f t="shared" si="0"/>
         <v>220973.14999999944</v>
       </c>
       <c r="F16" s="28">
-        <f t="shared" ref="F16" si="3">+E16/C16</f>
+        <f t="shared" si="1"/>
         <v>-4.7639841173875055E-2</v>
       </c>
       <c r="G16" s="14"/>
@@ -5229,19 +5294,19 @@
         <v>714</v>
       </c>
       <c r="C17" s="16">
+        <f>+'ESF21'!C174</f>
+        <v>38708.81</v>
+      </c>
+      <c r="D17" s="16">
         <f>38709+1525</f>
         <v>40234</v>
       </c>
-      <c r="D17" s="16">
-        <f>+'ESF21'!C174</f>
-        <v>38708.81</v>
-      </c>
       <c r="E17" s="16">
+        <f t="shared" si="0"/>
+        <v>-1525.1900000000023</v>
+      </c>
+      <c r="F17" s="28">
         <f t="shared" si="1"/>
-        <v>-1525.1900000000023</v>
-      </c>
-      <c r="F17" s="28">
-        <f t="shared" si="0"/>
         <v>-3.7907988268628581E-2</v>
       </c>
       <c r="G17" s="14"/>
@@ -5252,18 +5317,18 @@
       </c>
       <c r="C18" s="12">
         <f>+C15+C17+C16</f>
-        <v>6726358.2800000003</v>
+        <v>7943885.6199999992</v>
       </c>
       <c r="D18" s="12">
         <f>+D15+D17+D16</f>
-        <v>7943885.6199999992</v>
+        <v>6726358.2800000003</v>
       </c>
       <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>1217527.3399999989</v>
+      </c>
+      <c r="F18" s="28">
         <f t="shared" si="1"/>
-        <v>1217527.3399999989</v>
-      </c>
-      <c r="F18" s="28">
-        <f t="shared" si="0"/>
         <v>0.18100839849999767</v>
       </c>
       <c r="G18" s="14"/>
@@ -5274,18 +5339,18 @@
       </c>
       <c r="C19" s="12">
         <f>+C14+C18</f>
-        <v>18726019.280000001</v>
+        <v>23776091.039999999</v>
       </c>
       <c r="D19" s="12">
         <f>+D14+D18</f>
-        <v>23776091.039999999</v>
+        <v>18726019.280000001</v>
       </c>
       <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>5050071.7599999979</v>
+      </c>
+      <c r="F19" s="28">
         <f t="shared" si="1"/>
-        <v>5050071.7599999979</v>
-      </c>
-      <c r="F19" s="28">
-        <f t="shared" si="0"/>
         <v>0.26968207628588953</v>
       </c>
       <c r="G19" s="14"/>
@@ -5302,8 +5367,8 @@
       <c r="B21" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="14"/>
@@ -5323,18 +5388,18 @@
         <v>715</v>
       </c>
       <c r="C23" s="15">
-        <v>3911661</v>
-      </c>
-      <c r="D23" s="15">
         <f>+'ESF21'!C182+'ESF21'!C186</f>
         <v>5112346.5999999996</v>
       </c>
+      <c r="D23" s="15">
+        <v>3911661</v>
+      </c>
       <c r="E23" s="15">
-        <f t="shared" ref="E23:E31" si="4">+D23-C23</f>
+        <f t="shared" ref="E23:E33" si="2">+C23-D23</f>
         <v>1200685.5999999996</v>
       </c>
       <c r="F23" s="28">
-        <f t="shared" ref="F23:F27" si="5">+E23/C23</f>
+        <f>+E23/D23</f>
         <v>0.3069503211040015</v>
       </c>
       <c r="G23" s="14"/>
@@ -5344,19 +5409,19 @@
         <v>716</v>
       </c>
       <c r="C24" s="15">
+        <f>+'ESF21'!C191</f>
+        <v>4856097.22</v>
+      </c>
+      <c r="D24" s="15">
         <f>3593245-306510</f>
         <v>3286735</v>
       </c>
-      <c r="D24" s="15">
-        <f>+'ESF21'!C191</f>
-        <v>4856097.22</v>
-      </c>
       <c r="E24" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1569362.2199999997</v>
       </c>
       <c r="F24" s="28">
-        <f t="shared" si="5"/>
+        <f>+E24/D24</f>
         <v>0.47748364866653376</v>
       </c>
       <c r="G24" s="14"/>
@@ -5366,18 +5431,18 @@
         <v>389</v>
       </c>
       <c r="C25" s="15">
-        <v>532104</v>
-      </c>
-      <c r="D25" s="15">
         <f>+'ESF21'!C233+'ESF21'!C241</f>
         <v>285431.66000000003</v>
       </c>
+      <c r="D25" s="15">
+        <v>532104</v>
+      </c>
       <c r="E25" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-246672.33999999997</v>
       </c>
       <c r="F25" s="28">
-        <f t="shared" si="5"/>
+        <f>+E25/D25</f>
         <v>-0.46357918752725025</v>
       </c>
       <c r="G25" s="14"/>
@@ -5387,18 +5452,18 @@
         <v>118</v>
       </c>
       <c r="C26" s="15">
-        <v>75784</v>
-      </c>
-      <c r="D26" s="15">
         <f>+'ESF21'!C218</f>
         <v>25114.1</v>
       </c>
+      <c r="D26" s="15">
+        <v>75784</v>
+      </c>
       <c r="E26" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-50669.9</v>
       </c>
       <c r="F26" s="28">
-        <f t="shared" si="5"/>
+        <f>+E26/D26</f>
         <v>-0.66860946901720686</v>
       </c>
       <c r="G26" s="14"/>
@@ -5408,18 +5473,18 @@
         <v>717</v>
       </c>
       <c r="C27" s="15">
-        <v>98117</v>
-      </c>
-      <c r="D27" s="15">
         <f>+'ESF21'!C221+'ESF21'!C244</f>
         <v>171911.67999999999</v>
       </c>
+      <c r="D27" s="15">
+        <v>98117</v>
+      </c>
       <c r="E27" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>73794.679999999993</v>
       </c>
       <c r="F27" s="28">
-        <f t="shared" si="5"/>
+        <f>+E27/D27</f>
         <v>0.7521090127093164</v>
       </c>
       <c r="G27" s="14"/>
@@ -5430,14 +5495,14 @@
       </c>
       <c r="C28" s="12">
         <f>SUM(C23:C27)</f>
-        <v>7904401</v>
+        <v>10450901.26</v>
       </c>
       <c r="D28" s="12">
         <f>SUM(D23:D27)</f>
-        <v>10450901.26</v>
+        <v>7904401</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2546500.2599999998</v>
       </c>
       <c r="F28" s="15"/>
@@ -5448,7 +5513,7 @@
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29" s="15"/>
@@ -5459,18 +5524,18 @@
         <v>720</v>
       </c>
       <c r="C30" s="15">
-        <v>306510</v>
-      </c>
-      <c r="D30" s="15">
         <f>+'ESF21'!C260</f>
         <v>294124.48</v>
       </c>
+      <c r="D30" s="15">
+        <v>306510</v>
+      </c>
       <c r="E30" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>-12385.520000000019</v>
       </c>
       <c r="F30" s="28">
-        <f>+E30/C30</f>
+        <f>+E30/D30</f>
         <v>-4.040820854132008E-2</v>
       </c>
       <c r="G30" s="14"/>
@@ -5480,18 +5545,18 @@
         <v>718</v>
       </c>
       <c r="C31" s="15">
-        <v>445540</v>
-      </c>
-      <c r="D31" s="15">
         <f>+'ESF21'!C264</f>
         <v>494754.2</v>
       </c>
+      <c r="D31" s="15">
+        <v>445540</v>
+      </c>
       <c r="E31" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>49214.200000000012</v>
       </c>
       <c r="F31" s="28">
-        <f>+E31/C31</f>
+        <f>+E31/D31</f>
         <v>0.11045966692103966</v>
       </c>
       <c r="G31" s="14"/>
@@ -5502,18 +5567,18 @@
       </c>
       <c r="C32" s="12">
         <f>+C30+C31</f>
-        <v>752050</v>
+        <v>788878.67999999993</v>
       </c>
       <c r="D32" s="12">
         <f>+D30+D31</f>
-        <v>788878.67999999993</v>
+        <v>752050</v>
       </c>
       <c r="E32" s="12">
-        <f t="shared" ref="E32:E41" si="6">+D32-C32</f>
+        <f t="shared" si="2"/>
         <v>36828.679999999935</v>
       </c>
       <c r="F32" s="28">
-        <f>+E32/C32</f>
+        <f>+E32/D32</f>
         <v>4.8971052456618487E-2</v>
       </c>
       <c r="G32" s="14"/>
@@ -5524,18 +5589,18 @@
       </c>
       <c r="C33" s="12">
         <f>+C32+C28</f>
-        <v>8656451</v>
+        <v>11239779.939999999</v>
       </c>
       <c r="D33" s="12">
         <f>+D32+D28</f>
-        <v>11239779.939999999</v>
+        <v>8656451</v>
       </c>
       <c r="E33" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2583328.9399999995</v>
       </c>
       <c r="F33" s="28">
-        <f>+E33/C33</f>
+        <f>+E33/D33</f>
         <v>0.29842818263512372</v>
       </c>
       <c r="G33" s="14"/>
@@ -5563,18 +5628,18 @@
         <v>124</v>
       </c>
       <c r="C36" s="15">
-        <v>1608300</v>
-      </c>
-      <c r="D36" s="15">
         <f>+'ESF21'!C271</f>
         <v>1608300</v>
       </c>
+      <c r="D36" s="15">
+        <v>1608300</v>
+      </c>
       <c r="E36" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="E36:E41" si="3">+C36-D36</f>
         <v>0</v>
       </c>
       <c r="F36" s="28">
-        <f t="shared" ref="F36:F41" si="7">+E36/C36</f>
+        <f t="shared" ref="F36:F41" si="4">+E36/D36</f>
         <v>0</v>
       </c>
       <c r="G36" s="14"/>
@@ -5584,18 +5649,18 @@
         <v>719</v>
       </c>
       <c r="C37" s="15">
-        <v>626400</v>
-      </c>
-      <c r="D37" s="15">
         <f>+'ESF21'!C275</f>
         <v>720798.66</v>
       </c>
+      <c r="D37" s="15">
+        <v>626400</v>
+      </c>
       <c r="E37" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>94398.660000000033</v>
       </c>
       <c r="F37" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>0.1507002873563219</v>
       </c>
       <c r="G37" s="14"/>
@@ -5604,19 +5669,19 @@
       <c r="B38" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="68">
+        <v>3185946</v>
+      </c>
+      <c r="D38" s="15">
         <v>994720</v>
       </c>
-      <c r="D38" s="94">
-        <v>3203000</v>
-      </c>
       <c r="E38" s="15">
-        <f t="shared" si="6"/>
-        <v>2208280</v>
+        <f t="shared" si="3"/>
+        <v>2191226</v>
       </c>
       <c r="F38" s="28">
-        <f t="shared" si="7"/>
-        <v>2.2200016084928422</v>
+        <f t="shared" si="4"/>
+        <v>2.2028570854109701</v>
       </c>
       <c r="G38" s="14"/>
     </row>
@@ -5624,20 +5689,20 @@
       <c r="B39" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="94">
+        <f>+'ESF21'!C284+'ESF21'!C294-753100</f>
+        <v>7004212.46</v>
+      </c>
+      <c r="D39" s="15">
         <f>7834868-994720</f>
         <v>6840148</v>
       </c>
-      <c r="D39" s="94">
-        <f>+'ESF21'!C284+'ESF21'!C294-753100</f>
-        <v>7004212.46</v>
-      </c>
       <c r="E39" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>164064.45999999996</v>
       </c>
       <c r="F39" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>2.3985513178954601E-2</v>
       </c>
       <c r="G39" s="14"/>
@@ -5648,19 +5713,19 @@
       </c>
       <c r="C40" s="12">
         <f>SUM(C36:C39)</f>
-        <v>10069568</v>
+        <v>12519257.120000001</v>
       </c>
       <c r="D40" s="12">
         <f>SUM(D36:D39)</f>
-        <v>12536311.120000001</v>
+        <v>10069568</v>
       </c>
       <c r="E40" s="12">
-        <f t="shared" si="6"/>
-        <v>2466743.120000001</v>
+        <f t="shared" si="3"/>
+        <v>2449689.120000001</v>
       </c>
       <c r="F40" s="28">
-        <f t="shared" si="7"/>
-        <v>0.24497010398062768</v>
+        <f t="shared" si="4"/>
+        <v>0.24327648614121292</v>
       </c>
       <c r="G40" s="14"/>
     </row>
@@ -5669,35 +5734,35 @@
         <v>128</v>
       </c>
       <c r="C41" s="16">
-        <f>+C40+C33</f>
+        <f>+C33+C40</f>
+        <v>23759037.060000002</v>
+      </c>
+      <c r="D41" s="16">
+        <f>+D40+D33</f>
         <v>18726019</v>
       </c>
-      <c r="D41" s="16">
-        <f>+D33+D40</f>
-        <v>23776091.060000002</v>
-      </c>
       <c r="E41" s="12">
-        <f t="shared" si="6"/>
-        <v>5050072.0600000024</v>
+        <f t="shared" si="3"/>
+        <v>5033018.0600000024</v>
       </c>
       <c r="F41" s="29">
-        <f t="shared" si="7"/>
-        <v>0.26968209633878948</v>
+        <f t="shared" si="4"/>
+        <v>0.26877138488431535</v>
       </c>
       <c r="G41" s="17"/>
     </row>
     <row r="42" spans="2:7">
       <c r="C42" s="30">
         <f>+C41-C19</f>
-        <v>-0.2800000011920929</v>
+        <v>-17053.979999996722</v>
       </c>
       <c r="D42" s="30">
         <f>+D41-D19</f>
-        <v>2.0000003278255463E-2</v>
+        <v>-0.2800000011920929</v>
       </c>
       <c r="E42" s="30">
         <f>+E41-E19</f>
-        <v>0.30000000447034836</v>
+        <v>-17053.69999999553</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -5711,9 +5776,13 @@
       <c r="B44" t="s">
         <v>436</v>
       </c>
+      <c r="C44" s="33">
+        <f>+C14/C28</f>
+        <v>1.5149129272320767</v>
+      </c>
       <c r="D44" s="33">
         <f>+D14/D28</f>
-        <v>1.5149129272320767</v>
+        <v>1.5180987148804823</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
@@ -5722,9 +5791,13 @@
       <c r="B45" t="s">
         <v>437</v>
       </c>
+      <c r="C45" s="33">
+        <f>+C33/C40</f>
+        <v>0.89779927293321682</v>
+      </c>
       <c r="D45" s="33">
         <f>+D33/D40</f>
-        <v>0.8965779352802149</v>
+        <v>0.85966458541220436</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -5733,9 +5806,13 @@
       <c r="B46" t="s">
         <v>438</v>
       </c>
-      <c r="D46" s="8">
-        <f>360/(+ER!C8/(('BC18'!E16+'ESF20'!E17)/2))</f>
-        <v>1.2632331073497534</v>
+      <c r="C46" s="8">
+        <f>240/(+ER!C8/((C8+D8)/2))</f>
+        <v>63.288738604530437</v>
+      </c>
+      <c r="D46" s="30">
+        <f>360/(+ER!E8/((+D8+4951125)/2))</f>
+        <v>74.098199681730932</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -5744,17 +5821,17 @@
       <c r="B47" t="s">
         <v>946</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="C47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="D48" s="8"/>
+      <c r="C48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="4:6">
-      <c r="D49" s="8"/>
+    <row r="49" spans="3:6">
+      <c r="C49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
@@ -5771,7 +5848,7 @@
     <sheetView topLeftCell="A2" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -5782,7 +5859,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.85546875" customWidth="1"/>
     <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
@@ -5803,19 +5880,19 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>1019</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="10" t="s">
         <v>1018</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="100" t="s">
         <v>1022</v>
       </c>
-      <c r="G4" s="116"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:8">
       <c r="B5" s="13" t="s">
@@ -5952,7 +6029,7 @@
         <f t="shared" ref="F11:F16" si="2">+D11-E11</f>
         <v>4253115</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="28">
         <f t="shared" ref="G11:G16" si="3">+F11/E11</f>
         <v>-89.399987388069107</v>
       </c>
@@ -5976,7 +6053,7 @@
         <f t="shared" si="2"/>
         <v>2429953.6827370394</v>
       </c>
-      <c r="G12" s="98">
+      <c r="G12" s="28">
         <f t="shared" si="3"/>
         <v>0.17308013312302908</v>
       </c>
@@ -6001,7 +6078,7 @@
         <f t="shared" si="2"/>
         <v>-67167.666666666744</v>
       </c>
-      <c r="G13" s="98">
+      <c r="G13" s="28">
         <f t="shared" si="3"/>
         <v>-4.8287705126831879E-2</v>
       </c>
@@ -6026,7 +6103,7 @@
         <f t="shared" si="2"/>
         <v>-2794693</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="28">
         <f t="shared" si="3"/>
         <v>-0.91422304585847447</v>
       </c>
@@ -6052,7 +6129,7 @@
         <f t="shared" si="2"/>
         <v>3821208.0160703696</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="28">
         <f t="shared" si="3"/>
         <v>0.2072261995184311</v>
       </c>
@@ -6078,7 +6155,7 @@
         <f t="shared" si="2"/>
         <v>3313417.9839296304</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="28">
         <f t="shared" si="3"/>
         <v>0.83829202883827092</v>
       </c>
@@ -6104,7 +6181,7 @@
         <f>+D17-E17</f>
         <v>6.9565211215028677E-2</v>
       </c>
-      <c r="G17" s="26"/>
+      <c r="G17" s="97"/>
       <c r="H17" s="25"/>
     </row>
     <row r="18" spans="2:8">
@@ -6116,7 +6193,7 @@
         <f>+C18-E18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="2:8">
@@ -6136,7 +6213,7 @@
         <f>+D19-E19</f>
         <v>-97739</v>
       </c>
-      <c r="G19" s="98">
+      <c r="G19" s="28">
         <f t="shared" ref="G19:G20" si="5">+F19/E19</f>
         <v>-5.347535944683568E-2</v>
       </c>
@@ -6160,7 +6237,7 @@
         <f>+D20-E20</f>
         <v>12077</v>
       </c>
-      <c r="G20" s="98">
+      <c r="G20" s="28">
         <f t="shared" si="5"/>
         <v>2.1153465528626451E-2</v>
       </c>
@@ -6186,30 +6263,30 @@
         <f>+D21-E21</f>
         <v>-2.8784510338790453E-2</v>
       </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="97"/>
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="93" t="s">
         <v>1017</v>
       </c>
-      <c r="C22" s="96">
+      <c r="C22" s="95">
         <f t="shared" ref="C22:E22" si="7">+C16-C20-C19</f>
         <v>3372620</v>
       </c>
-      <c r="D22" s="96">
+      <c r="D22" s="95">
         <f t="shared" si="7"/>
         <v>4952999.9839296304</v>
       </c>
-      <c r="E22" s="96">
+      <c r="E22" s="95">
         <f t="shared" si="7"/>
         <v>1553920</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="95">
         <f t="shared" ref="F22" si="8">+F16-F20</f>
         <v>3301340.9839296304</v>
       </c>
-      <c r="G22" s="98">
+      <c r="G22" s="28">
         <f>+F22/E22</f>
         <v>2.1245244182001843</v>
       </c>
@@ -6221,7 +6298,7 @@
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="99"/>
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="2:8">
@@ -6242,7 +6319,7 @@
         <f t="shared" ref="F24:F27" si="9">+D24-E24</f>
         <v>14998</v>
       </c>
-      <c r="G24" s="98">
+      <c r="G24" s="28">
         <f t="shared" ref="G24:G26" si="10">+F24/E24</f>
         <v>-0.20545768377215815</v>
       </c>
@@ -6267,7 +6344,7 @@
         <f t="shared" si="9"/>
         <v>-201000</v>
       </c>
-      <c r="G25" s="98">
+      <c r="G25" s="28">
         <v>1</v>
       </c>
       <c r="H25" s="14"/>
@@ -6292,7 +6369,7 @@
         <f t="shared" si="9"/>
         <v>3213077.9839296304</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="28">
         <f t="shared" si="10"/>
         <v>2.1696470063444466</v>
       </c>
@@ -6318,7 +6395,7 @@
         <f t="shared" si="9"/>
         <v>9.283803793465667E-2</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="98"/>
       <c r="H27" s="14"/>
     </row>
     <row r="28" spans="2:8">
@@ -6327,7 +6404,7 @@
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="G28" s="98"/>
       <c r="H28" s="14"/>
     </row>
     <row r="29" spans="2:8">
@@ -6348,7 +6425,7 @@
         <f t="shared" ref="F29:F32" si="11">+D29-E29</f>
         <v>-481961.99758944451</v>
       </c>
-      <c r="G29" s="98">
+      <c r="G29" s="28">
         <f t="shared" ref="G29:G31" si="12">+F29/E29</f>
         <v>2.1696512869902698</v>
       </c>
@@ -6371,7 +6448,7 @@
         <f t="shared" si="11"/>
         <v>-638580</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="28">
         <f t="shared" si="12"/>
         <v>1.9929467573809376</v>
       </c>
@@ -6397,7 +6474,7 @@
         <f t="shared" si="11"/>
         <v>2092535.9863401856</v>
       </c>
-      <c r="G31" s="99">
+      <c r="G31" s="29">
         <f t="shared" si="12"/>
         <v>2.2299832328821072</v>
       </c>
@@ -6416,11 +6493,11 @@
         <f>+E31/E8</f>
         <v>4.1905516583458279E-2</v>
       </c>
-      <c r="F32" s="97">
+      <c r="F32" s="96">
         <f t="shared" si="11"/>
         <v>6.074290643073841E-2</v>
       </c>
-      <c r="G32" s="97"/>
+      <c r="G32" s="96"/>
     </row>
     <row r="33" spans="3:5">
       <c r="C33" s="30">
@@ -6433,9 +6510,6 @@
       <c r="E34" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F4:G4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6443,4431 +6517,4513 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCF1F22-67E6-443E-A4C2-596743BC5E67}">
-  <dimension ref="A2:G318"/>
+  <dimension ref="A2:I318"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="G321" sqref="G321"/>
+      <selection pane="bottomLeft" activeCell="D296" sqref="D296"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="106" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" style="100" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="102" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="100" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="100"/>
-    <col min="7" max="7" width="14" style="100" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="100"/>
+    <col min="1" max="1" width="19.140625" style="102" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60" style="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="103" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="103"/>
+    <col min="7" max="7" width="14" style="103" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="103" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="103"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="20.25">
-      <c r="A2" s="106" t="s">
+    <row r="2" spans="1:5" ht="19.5">
+      <c r="A2" s="102" t="s">
         <v>485</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="104" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25">
-      <c r="A4" s="117" t="s">
+    <row r="4" spans="1:5" ht="19.5">
+      <c r="A4" s="118" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="117"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="119" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="118"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="119" t="s">
         <v>489</v>
       </c>
-      <c r="B6" s="118"/>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
+      <c r="B6" s="119"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="119" t="s">
         <v>1025</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-    </row>
-    <row r="9" spans="1:5" ht="20.25">
-      <c r="A9" s="107" t="s">
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5">
+      <c r="A9" s="105" t="s">
         <v>491</v>
       </c>
-      <c r="B9" s="103" t="s">
+      <c r="B9" s="106" t="s">
         <v>492</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="104" t="s">
         <v>722</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="106" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <v>1</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="108" t="s">
         <v>496</v>
       </c>
-      <c r="C10" s="105">
+      <c r="C10" s="109">
         <v>23776091.600000001</v>
       </c>
-      <c r="D10" s="104">
+      <c r="D10" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <v>101</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="108" t="s">
         <v>497</v>
       </c>
-      <c r="C11" s="105">
+      <c r="C11" s="109">
         <v>15832205.42</v>
       </c>
-      <c r="D11" s="104">
+      <c r="D11" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <v>10101</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="108" t="s">
         <v>498</v>
       </c>
-      <c r="C12" s="105">
+      <c r="C12" s="109">
         <v>1722300.75</v>
       </c>
-      <c r="D12" s="104">
+      <c r="D12" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <v>1010101</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="108" t="s">
         <v>499</v>
       </c>
-      <c r="C13" s="105">
+      <c r="C13" s="109">
         <v>21710</v>
       </c>
-      <c r="D13" s="104">
+      <c r="D13" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <v>101010101</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="108" t="s">
         <v>500</v>
       </c>
-      <c r="C14" s="105">
+      <c r="C14" s="109">
         <v>21710</v>
       </c>
-      <c r="D14" s="104">
+      <c r="D14" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="108">
+      <c r="A15" s="107">
         <v>101010101001</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="108" t="s">
         <v>501</v>
       </c>
-      <c r="C15" s="105">
+      <c r="C15" s="109">
         <v>1710</v>
       </c>
-      <c r="D15" s="104">
+      <c r="D15" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="108">
+      <c r="A16" s="107">
         <v>101010101006</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="108" t="s">
         <v>1027</v>
       </c>
-      <c r="C16" s="105">
+      <c r="C16" s="109">
         <v>20000</v>
       </c>
-      <c r="D16" s="104">
+      <c r="D16" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="108">
+      <c r="A17" s="107">
         <v>1010102</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="108" t="s">
         <v>503</v>
       </c>
-      <c r="C17" s="105">
+      <c r="C17" s="109">
         <v>1700590.75</v>
       </c>
-      <c r="D17" s="104">
+      <c r="D17" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="108">
+      <c r="A18" s="107">
         <v>101010201</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="108" t="s">
         <v>504</v>
       </c>
-      <c r="C18" s="105">
+      <c r="C18" s="109">
         <v>1687425.75</v>
       </c>
-      <c r="D18" s="104">
+      <c r="D18" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="108">
+      <c r="A19" s="107">
         <v>101010201001</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="108" t="s">
         <v>505</v>
       </c>
-      <c r="C19" s="105">
+      <c r="C19" s="109">
         <v>374696</v>
       </c>
-      <c r="D19" s="104">
+      <c r="D19" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <v>101010201002</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="108" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="105">
+      <c r="C20" s="109">
         <v>54602.96</v>
       </c>
-      <c r="D20" s="104">
+      <c r="D20" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="108">
+      <c r="A21" s="107">
         <v>101010201004</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="108" t="s">
         <v>508</v>
       </c>
-      <c r="C21" s="105">
+      <c r="C21" s="109">
         <v>664.86</v>
       </c>
-      <c r="D21" s="104">
+      <c r="D21" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="108">
+      <c r="A22" s="107">
         <v>101010201005</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="108" t="s">
         <v>509</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="109">
         <v>707461.93</v>
       </c>
-      <c r="D22" s="104">
+      <c r="D22" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="108">
+      <c r="A23" s="107">
         <v>101010201006</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="108" t="s">
         <v>510</v>
       </c>
-      <c r="C23" s="105">
+      <c r="C23" s="109">
         <v>550000</v>
       </c>
-      <c r="D23" s="104">
+      <c r="D23" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="108">
+      <c r="A24" s="107">
         <v>101010202</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="108" t="s">
         <v>511</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="109">
         <v>13165</v>
       </c>
-      <c r="D24" s="104">
+      <c r="D24" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="108">
+      <c r="A25" s="107">
         <v>101010202001</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="108" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="105">
+      <c r="C25" s="109">
         <v>13165</v>
       </c>
-      <c r="D25" s="104">
+      <c r="D25" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="108">
+      <c r="A26" s="107">
         <v>10102</v>
       </c>
-      <c r="B26" s="104" t="s">
+      <c r="B26" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="109">
         <v>8007437.79</v>
       </c>
-      <c r="D26" s="104">
+      <c r="D26" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="108">
+      <c r="A27" s="107">
         <v>1010205</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="108" t="s">
         <v>514</v>
       </c>
-      <c r="C27" s="105">
+      <c r="C27" s="109">
         <v>6441345.3700000001</v>
       </c>
-      <c r="D27" s="104">
+      <c r="D27" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="108">
+      <c r="A28" s="107">
         <v>101020502</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="108" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="105">
+      <c r="C28" s="109">
         <v>6439415.1699999999</v>
       </c>
-      <c r="D28" s="104">
+      <c r="D28" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="108">
+      <c r="A29" s="107">
         <v>101020502001</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="108" t="s">
         <v>516</v>
       </c>
-      <c r="C29" s="105">
+      <c r="C29" s="109">
         <v>6400474.1299999999</v>
       </c>
-      <c r="D29" s="104">
+      <c r="D29" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="108">
+      <c r="A30" s="107">
         <v>101020502002</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="108" t="s">
         <v>517</v>
       </c>
-      <c r="C30" s="105">
+      <c r="C30" s="109">
         <v>38941.040000000001</v>
       </c>
-      <c r="D30" s="104">
+      <c r="D30" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="108">
+      <c r="A31" s="107">
         <v>101020503</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="108" t="s">
         <v>518</v>
       </c>
-      <c r="C31" s="105">
+      <c r="C31" s="109">
         <v>1930.2</v>
       </c>
-      <c r="D31" s="104">
+      <c r="D31" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="108">
+      <c r="A32" s="107">
         <v>101020503001</v>
       </c>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="108" t="s">
         <v>519</v>
       </c>
-      <c r="C32" s="105">
+      <c r="C32" s="109">
         <v>1930.2</v>
       </c>
-      <c r="D32" s="104">
+      <c r="D32" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="108">
+      <c r="A33" s="107">
         <v>101020503001</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="108" t="s">
         <v>519</v>
       </c>
-      <c r="C33" s="105">
-        <v>0</v>
-      </c>
-      <c r="D33" s="104">
+      <c r="C33" s="109">
+        <v>0</v>
+      </c>
+      <c r="D33" s="108">
         <v>-8845.9500000000007</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="108">
+      <c r="A34" s="107">
         <v>101020503001</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="108" t="s">
         <v>519</v>
       </c>
-      <c r="C34" s="105">
-        <v>0</v>
-      </c>
-      <c r="D34" s="104">
+      <c r="C34" s="109">
+        <v>0</v>
+      </c>
+      <c r="D34" s="108">
         <v>-4914.4399999999996</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="108">
+      <c r="A35" s="107">
         <v>101020503001</v>
       </c>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="108" t="s">
         <v>519</v>
       </c>
-      <c r="C35" s="105">
-        <v>0</v>
-      </c>
-      <c r="D35" s="104">
+      <c r="C35" s="109">
+        <v>0</v>
+      </c>
+      <c r="D35" s="108">
         <v>15690.59</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="108">
+      <c r="A36" s="107">
         <v>1010207</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="108" t="s">
         <v>520</v>
       </c>
-      <c r="C36" s="105">
+      <c r="C36" s="109">
         <v>139344.95999999999</v>
       </c>
-      <c r="D36" s="104">
+      <c r="D36" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="108">
+      <c r="A37" s="107">
         <v>101020703</v>
       </c>
-      <c r="B37" s="104" t="s">
+      <c r="B37" s="108" t="s">
         <v>521</v>
       </c>
-      <c r="C37" s="105">
+      <c r="C37" s="109">
         <v>105408.18</v>
       </c>
-      <c r="D37" s="104">
+      <c r="D37" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="108">
+      <c r="A38" s="107">
         <v>101020703001</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="108" t="s">
         <v>522</v>
       </c>
-      <c r="C38" s="105">
+      <c r="C38" s="109">
         <v>105408.18</v>
       </c>
-      <c r="D38" s="104">
+      <c r="D38" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="108">
+      <c r="A39" s="107">
         <v>101020704</v>
       </c>
-      <c r="B39" s="104" t="s">
+      <c r="B39" s="108" t="s">
         <v>523</v>
       </c>
-      <c r="C39" s="105">
+      <c r="C39" s="109">
         <v>33936.78</v>
       </c>
-      <c r="D39" s="104">
+      <c r="D39" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="108">
+      <c r="A40" s="107">
         <v>101020704002</v>
       </c>
-      <c r="B40" s="104" t="s">
+      <c r="B40" s="108" t="s">
         <v>524</v>
       </c>
-      <c r="C40" s="105">
+      <c r="C40" s="109">
         <v>26244.94</v>
       </c>
-      <c r="D40" s="104">
+      <c r="D40" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="108">
+      <c r="A41" s="107">
         <v>101020704003</v>
       </c>
-      <c r="B41" s="104" t="s">
+      <c r="B41" s="108" t="s">
         <v>723</v>
       </c>
-      <c r="C41" s="105">
+      <c r="C41" s="109">
         <v>4180</v>
       </c>
-      <c r="D41" s="104">
+      <c r="D41" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="108">
+      <c r="A42" s="107">
         <v>101020704005</v>
       </c>
-      <c r="B42" s="104" t="s">
+      <c r="B42" s="108" t="s">
         <v>525</v>
       </c>
-      <c r="C42" s="105">
+      <c r="C42" s="109">
         <v>563.64</v>
       </c>
-      <c r="D42" s="104">
+      <c r="D42" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="108">
+      <c r="A43" s="107">
         <v>101020704006</v>
       </c>
-      <c r="B43" s="104" t="s">
+      <c r="B43" s="108" t="s">
         <v>1028</v>
       </c>
-      <c r="C43" s="105">
+      <c r="C43" s="109">
         <v>12.65</v>
       </c>
-      <c r="D43" s="104">
+      <c r="D43" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="108">
+      <c r="A44" s="107">
         <v>101020704007</v>
       </c>
-      <c r="B44" s="104" t="s">
+      <c r="B44" s="108" t="s">
         <v>526</v>
       </c>
-      <c r="C44" s="105">
+      <c r="C44" s="109">
         <v>2935.55</v>
       </c>
-      <c r="D44" s="104">
+      <c r="D44" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="108">
+      <c r="A45" s="107">
         <v>1010208</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="108" t="s">
         <v>527</v>
       </c>
-      <c r="C45" s="105">
+      <c r="C45" s="109">
         <v>1625489.95</v>
       </c>
-      <c r="D45" s="104">
+      <c r="D45" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="108">
+      <c r="A46" s="107">
         <v>101020801</v>
       </c>
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="108" t="s">
         <v>528</v>
       </c>
-      <c r="C46" s="105">
+      <c r="C46" s="109">
         <v>1271643.94</v>
       </c>
-      <c r="D46" s="104">
+      <c r="D46" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="108">
+      <c r="A47" s="107">
         <v>101020801002</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="108" t="s">
         <v>529</v>
       </c>
-      <c r="C47" s="105">
+      <c r="C47" s="109">
         <v>123420.9</v>
       </c>
-      <c r="D47" s="104">
+      <c r="D47" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="108">
+      <c r="A48" s="107">
         <v>101020801003</v>
       </c>
-      <c r="B48" s="104" t="s">
+      <c r="B48" s="108" t="s">
         <v>530</v>
       </c>
-      <c r="C48" s="105">
+      <c r="C48" s="109">
         <v>1148223.04</v>
       </c>
-      <c r="D48" s="104">
+      <c r="D48" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="108">
+      <c r="A49" s="107">
         <v>101020803</v>
       </c>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="108" t="s">
         <v>531</v>
       </c>
-      <c r="C49" s="105">
+      <c r="C49" s="109">
         <v>353846.01</v>
       </c>
-      <c r="D49" s="104">
+      <c r="D49" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="108">
+      <c r="A50" s="107">
         <v>101020803001</v>
       </c>
-      <c r="B50" s="104" t="s">
+      <c r="B50" s="108" t="s">
         <v>532</v>
       </c>
-      <c r="C50" s="105">
+      <c r="C50" s="109">
         <v>0.3</v>
       </c>
-      <c r="D50" s="104">
+      <c r="D50" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="108">
+      <c r="A51" s="107">
         <v>101020803001</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="108" t="s">
         <v>532</v>
       </c>
-      <c r="C51" s="105">
-        <v>0</v>
-      </c>
-      <c r="D51" s="104">
+      <c r="C51" s="109">
+        <v>0</v>
+      </c>
+      <c r="D51" s="108">
         <v>0.3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="108">
+      <c r="A52" s="107">
         <v>101020803004</v>
       </c>
-      <c r="B52" s="104" t="s">
+      <c r="B52" s="108" t="s">
         <v>533</v>
       </c>
-      <c r="C52" s="105">
+      <c r="C52" s="109">
         <v>-130.07</v>
       </c>
-      <c r="D52" s="104">
+      <c r="D52" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="108">
+      <c r="A53" s="107">
         <v>101020803005</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="108" t="s">
         <v>534</v>
       </c>
-      <c r="C53" s="105">
+      <c r="C53" s="109">
         <v>238062.32</v>
       </c>
-      <c r="D53" s="104">
+      <c r="D53" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="108">
+      <c r="A54" s="107">
         <v>101020803007</v>
       </c>
-      <c r="B54" s="104" t="s">
+      <c r="B54" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="C54" s="105">
+      <c r="C54" s="109">
         <v>97153.27</v>
       </c>
-      <c r="D54" s="104">
+      <c r="D54" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="108">
+      <c r="A55" s="107">
         <v>101020803007</v>
       </c>
-      <c r="B55" s="104" t="s">
+      <c r="B55" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="C55" s="105">
-        <v>0</v>
-      </c>
-      <c r="D55" s="104">
+      <c r="C55" s="109">
+        <v>0</v>
+      </c>
+      <c r="D55" s="108">
         <v>96808.8</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="108">
+      <c r="A56" s="107">
         <v>101020803007</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="C56" s="105">
-        <v>0</v>
-      </c>
-      <c r="D56" s="104">
+      <c r="C56" s="109">
+        <v>0</v>
+      </c>
+      <c r="D56" s="108">
         <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="108">
+      <c r="A57" s="107">
         <v>101020803007</v>
       </c>
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="C57" s="105">
-        <v>0</v>
-      </c>
-      <c r="D57" s="104">
+      <c r="C57" s="109">
+        <v>0</v>
+      </c>
+      <c r="D57" s="108">
         <v>-13.2</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="108">
+      <c r="A58" s="107">
         <v>101020803007</v>
       </c>
-      <c r="B58" s="104" t="s">
+      <c r="B58" s="108" t="s">
         <v>535</v>
       </c>
-      <c r="C58" s="105">
-        <v>0</v>
-      </c>
-      <c r="D58" s="104">
+      <c r="C58" s="109">
+        <v>0</v>
+      </c>
+      <c r="D58" s="108">
         <v>257.67</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="108">
+      <c r="A59" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B59" s="104" t="s">
+      <c r="B59" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C59" s="105">
+      <c r="C59" s="109">
         <v>18760.189999999999</v>
       </c>
-      <c r="D59" s="104">
+      <c r="D59" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="108">
+      <c r="A60" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B60" s="104" t="s">
+      <c r="B60" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C60" s="105">
-        <v>0</v>
-      </c>
-      <c r="D60" s="104">
+      <c r="C60" s="109">
+        <v>0</v>
+      </c>
+      <c r="D60" s="108">
         <v>8193.7099999999991</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="108">
+      <c r="A61" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C61" s="105">
-        <v>0</v>
-      </c>
-      <c r="D61" s="104">
+      <c r="C61" s="109">
+        <v>0</v>
+      </c>
+      <c r="D61" s="108">
         <v>116.03</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="108">
+      <c r="A62" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B62" s="104" t="s">
+      <c r="B62" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C62" s="105">
-        <v>0</v>
-      </c>
-      <c r="D62" s="104">
+      <c r="C62" s="109">
+        <v>0</v>
+      </c>
+      <c r="D62" s="108">
         <v>-3710</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="108">
+      <c r="A63" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B63" s="104" t="s">
+      <c r="B63" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C63" s="105">
-        <v>0</v>
-      </c>
-      <c r="D63" s="104">
+      <c r="C63" s="109">
+        <v>0</v>
+      </c>
+      <c r="D63" s="108">
         <v>-6888</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="108">
+      <c r="A64" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B64" s="104" t="s">
+      <c r="B64" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C64" s="105">
-        <v>0</v>
-      </c>
-      <c r="D64" s="104">
+      <c r="C64" s="109">
+        <v>0</v>
+      </c>
+      <c r="D64" s="108">
         <v>-2490.44</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="108">
+      <c r="A65" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B65" s="104" t="s">
+      <c r="B65" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C65" s="105">
-        <v>0</v>
-      </c>
-      <c r="D65" s="104">
+      <c r="C65" s="109">
+        <v>0</v>
+      </c>
+      <c r="D65" s="108">
         <v>-5135.2299999999996</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="108">
+      <c r="A66" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B66" s="104" t="s">
+      <c r="B66" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C66" s="105">
-        <v>0</v>
-      </c>
-      <c r="D66" s="104">
+      <c r="C66" s="109">
+        <v>0</v>
+      </c>
+      <c r="D66" s="108">
         <v>8200</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="108">
+      <c r="A67" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B67" s="104" t="s">
+      <c r="B67" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C67" s="105">
-        <v>0</v>
-      </c>
-      <c r="D67" s="104">
+      <c r="C67" s="109">
+        <v>0</v>
+      </c>
+      <c r="D67" s="108">
         <v>700</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="108">
+      <c r="A68" s="107">
         <v>101020803009</v>
       </c>
-      <c r="B68" s="104" t="s">
+      <c r="B68" s="108" t="s">
         <v>536</v>
       </c>
-      <c r="C68" s="105">
-        <v>0</v>
-      </c>
-      <c r="D68" s="104">
+      <c r="C68" s="109">
+        <v>0</v>
+      </c>
+      <c r="D68" s="108">
         <v>19774.12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="108">
+      <c r="A69" s="107">
         <v>1010209</v>
       </c>
-      <c r="B69" s="104" t="s">
+      <c r="B69" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="C69" s="105">
+      <c r="C69" s="109">
         <v>-198742.49</v>
       </c>
-      <c r="D69" s="104">
+      <c r="D69" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="108">
+      <c r="A70" s="107">
         <v>101020901</v>
       </c>
-      <c r="B70" s="104" t="s">
+      <c r="B70" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="C70" s="105">
+      <c r="C70" s="109">
         <v>-198742.49</v>
       </c>
-      <c r="D70" s="104">
+      <c r="D70" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="108">
+      <c r="A71" s="107">
         <v>101020901001</v>
       </c>
-      <c r="B71" s="104" t="s">
+      <c r="B71" s="108" t="s">
         <v>538</v>
       </c>
-      <c r="C71" s="105">
+      <c r="C71" s="109">
         <v>-198742.49</v>
       </c>
-      <c r="D71" s="104">
+      <c r="D71" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="108">
+      <c r="A72" s="107">
         <v>10103</v>
       </c>
-      <c r="B72" s="104" t="s">
+      <c r="B72" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="C72" s="105">
+      <c r="C72" s="109">
         <v>5410050.6699999999</v>
       </c>
-      <c r="D72" s="104">
+      <c r="D72" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="108">
+      <c r="A73" s="107">
         <v>1010301</v>
       </c>
-      <c r="B73" s="104" t="s">
+      <c r="B73" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="C73" s="105">
+      <c r="C73" s="109">
         <v>1859117.76</v>
       </c>
-      <c r="D73" s="104">
+      <c r="D73" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="108">
+      <c r="A74" s="107">
         <v>101030101</v>
       </c>
-      <c r="B74" s="104" t="s">
+      <c r="B74" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="C74" s="105">
+      <c r="C74" s="109">
         <v>1715138.96</v>
       </c>
-      <c r="D74" s="104">
+      <c r="D74" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="108">
+      <c r="A75" s="107">
         <v>101030101001</v>
       </c>
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="108" t="s">
         <v>542</v>
       </c>
-      <c r="C75" s="105">
+      <c r="C75" s="109">
         <v>1715138.96</v>
       </c>
-      <c r="D75" s="104">
+      <c r="D75" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="108">
+      <c r="A76" s="107">
         <v>101030102</v>
       </c>
-      <c r="B76" s="104" t="s">
+      <c r="B76" s="108" t="s">
         <v>543</v>
       </c>
-      <c r="C76" s="105">
+      <c r="C76" s="109">
         <v>143978.79999999999</v>
       </c>
-      <c r="D76" s="104">
+      <c r="D76" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="108">
+      <c r="A77" s="107">
         <v>101030102001</v>
       </c>
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="108" t="s">
         <v>544</v>
       </c>
-      <c r="C77" s="105">
+      <c r="C77" s="109">
         <v>143978.79999999999</v>
       </c>
-      <c r="D77" s="104">
+      <c r="D77" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="108">
+      <c r="A78" s="107">
         <v>1010302</v>
       </c>
-      <c r="B78" s="104" t="s">
+      <c r="B78" s="108" t="s">
         <v>545</v>
       </c>
-      <c r="C78" s="105">
+      <c r="C78" s="109">
         <v>263225.28999999998</v>
       </c>
-      <c r="D78" s="104">
+      <c r="D78" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="108">
+      <c r="A79" s="107">
         <v>101030201</v>
       </c>
-      <c r="B79" s="104" t="s">
+      <c r="B79" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="C79" s="105">
+      <c r="C79" s="109">
         <v>263225.28999999998</v>
       </c>
-      <c r="D79" s="104">
+      <c r="D79" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="108">
+      <c r="A80" s="107">
         <v>101030201001</v>
       </c>
-      <c r="B80" s="104" t="s">
+      <c r="B80" s="108" t="s">
         <v>547</v>
       </c>
-      <c r="C80" s="105">
+      <c r="C80" s="109">
         <v>263225.28999999998</v>
       </c>
-      <c r="D80" s="104">
+      <c r="D80" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="108">
+      <c r="A81" s="107">
         <v>1010303</v>
       </c>
-      <c r="B81" s="104" t="s">
+      <c r="B81" s="108" t="s">
         <v>548</v>
       </c>
-      <c r="C81" s="105">
+      <c r="C81" s="109">
         <v>1243986.3799999999</v>
       </c>
-      <c r="D81" s="104">
+      <c r="D81" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="108">
+      <c r="A82" s="107">
         <v>101030301</v>
       </c>
-      <c r="B82" s="104" t="s">
+      <c r="B82" s="108" t="s">
         <v>548</v>
       </c>
-      <c r="C82" s="105">
+      <c r="C82" s="109">
         <v>1243986.3799999999</v>
       </c>
-      <c r="D82" s="104">
+      <c r="D82" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="108">
+      <c r="A83" s="107">
         <v>101030301001</v>
       </c>
-      <c r="B83" s="104" t="s">
+      <c r="B83" s="108" t="s">
         <v>549</v>
       </c>
-      <c r="C83" s="105">
+      <c r="C83" s="109">
         <v>1259179.8700000001</v>
       </c>
-      <c r="D83" s="104">
+      <c r="D83" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="108">
+      <c r="A84" s="107">
         <v>101030301003</v>
       </c>
-      <c r="B84" s="104" t="s">
+      <c r="B84" s="108" t="s">
         <v>550</v>
       </c>
-      <c r="C84" s="105">
+      <c r="C84" s="109">
         <v>-15193.49</v>
       </c>
-      <c r="D84" s="104">
+      <c r="D84" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="108">
+      <c r="A85" s="107">
         <v>1010304</v>
       </c>
-      <c r="B85" s="104" t="s">
+      <c r="B85" s="108" t="s">
         <v>551</v>
       </c>
-      <c r="C85" s="105">
+      <c r="C85" s="109">
         <v>120670.33</v>
       </c>
-      <c r="D85" s="104">
+      <c r="D85" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="108">
+      <c r="A86" s="107">
         <v>101030401</v>
       </c>
-      <c r="B86" s="104" t="s">
+      <c r="B86" s="108" t="s">
         <v>551</v>
       </c>
-      <c r="C86" s="105">
+      <c r="C86" s="109">
         <v>120670.33</v>
       </c>
-      <c r="D86" s="104">
+      <c r="D86" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="108">
+      <c r="A87" s="107">
         <v>101030401001</v>
       </c>
-      <c r="B87" s="104" t="s">
+      <c r="B87" s="108" t="s">
         <v>552</v>
       </c>
-      <c r="C87" s="105">
+      <c r="C87" s="109">
         <v>120670.33</v>
       </c>
-      <c r="D87" s="104">
+      <c r="D87" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="108">
+      <c r="A88" s="107">
         <v>1010305</v>
       </c>
-      <c r="B88" s="104" t="s">
+      <c r="B88" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="C88" s="105">
+      <c r="C88" s="109">
         <v>60012.82</v>
       </c>
-      <c r="D88" s="104">
+      <c r="D88" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="108">
+      <c r="A89" s="107">
         <v>101030501</v>
       </c>
-      <c r="B89" s="104" t="s">
+      <c r="B89" s="108" t="s">
         <v>553</v>
       </c>
-      <c r="C89" s="105">
+      <c r="C89" s="109">
         <v>60012.82</v>
       </c>
-      <c r="D89" s="104">
+      <c r="D89" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="108">
+      <c r="A90" s="107">
         <v>101030501001</v>
       </c>
-      <c r="B90" s="104" t="s">
+      <c r="B90" s="108" t="s">
         <v>554</v>
       </c>
-      <c r="C90" s="105">
+      <c r="C90" s="109">
         <v>60012.82</v>
       </c>
-      <c r="D90" s="104">
+      <c r="D90" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="108">
+      <c r="A91" s="107">
         <v>1010306</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B91" s="108" t="s">
         <v>555</v>
       </c>
-      <c r="C91" s="105">
+      <c r="C91" s="109">
         <v>344962.27</v>
       </c>
-      <c r="D91" s="104">
+      <c r="D91" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="108">
+      <c r="A92" s="107">
         <v>101030601</v>
       </c>
-      <c r="B92" s="104" t="s">
+      <c r="B92" s="108" t="s">
         <v>556</v>
       </c>
-      <c r="C92" s="105">
+      <c r="C92" s="109">
         <v>344962.27</v>
       </c>
-      <c r="D92" s="104">
+      <c r="D92" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="108">
+      <c r="A93" s="107">
         <v>101030601001</v>
       </c>
-      <c r="B93" s="104" t="s">
+      <c r="B93" s="108" t="s">
         <v>557</v>
       </c>
-      <c r="C93" s="105">
+      <c r="C93" s="109">
         <v>344962.27</v>
       </c>
-      <c r="D93" s="104">
+      <c r="D93" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="108">
+      <c r="A94" s="107">
         <v>1010307</v>
       </c>
-      <c r="B94" s="104" t="s">
+      <c r="B94" s="108" t="s">
         <v>558</v>
       </c>
-      <c r="C94" s="105">
+      <c r="C94" s="109">
         <v>1561640.01</v>
       </c>
-      <c r="D94" s="104">
+      <c r="D94" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="108">
+      <c r="A95" s="107">
         <v>101030701</v>
       </c>
-      <c r="B95" s="104" t="s">
+      <c r="B95" s="108" t="s">
         <v>558</v>
       </c>
-      <c r="C95" s="105">
+      <c r="C95" s="109">
         <v>1561640.01</v>
       </c>
-      <c r="D95" s="104">
+      <c r="D95" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="108">
+      <c r="A96" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B96" s="104" t="s">
+      <c r="B96" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C96" s="105">
+      <c r="C96" s="109">
         <v>1561640.01</v>
       </c>
-      <c r="D96" s="104">
+      <c r="D96" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="108">
+      <c r="A97" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B97" s="104" t="s">
+      <c r="B97" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C97" s="105">
-        <v>0</v>
-      </c>
-      <c r="D97" s="104">
+      <c r="C97" s="109">
+        <v>0</v>
+      </c>
+      <c r="D97" s="108">
         <v>384</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="108">
+      <c r="A98" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B98" s="104" t="s">
+      <c r="B98" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C98" s="105">
-        <v>0</v>
-      </c>
-      <c r="D98" s="104">
+      <c r="C98" s="109">
+        <v>0</v>
+      </c>
+      <c r="D98" s="108">
         <v>111680.1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="108">
+      <c r="A99" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B99" s="104" t="s">
+      <c r="B99" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C99" s="105">
-        <v>0</v>
-      </c>
-      <c r="D99" s="104">
+      <c r="C99" s="109">
+        <v>0</v>
+      </c>
+      <c r="D99" s="108">
         <v>39.72</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="108">
+      <c r="A100" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B100" s="104" t="s">
+      <c r="B100" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C100" s="105">
-        <v>0</v>
-      </c>
-      <c r="D100" s="104">
+      <c r="C100" s="109">
+        <v>0</v>
+      </c>
+      <c r="D100" s="108">
         <v>26.46</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="108">
+      <c r="A101" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B101" s="104" t="s">
+      <c r="B101" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C101" s="105">
-        <v>0</v>
-      </c>
-      <c r="D101" s="104">
+      <c r="C101" s="109">
+        <v>0</v>
+      </c>
+      <c r="D101" s="108">
         <v>22384.91</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="108">
+      <c r="A102" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B102" s="104" t="s">
+      <c r="B102" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C102" s="105">
-        <v>0</v>
-      </c>
-      <c r="D102" s="104">
+      <c r="C102" s="109">
+        <v>0</v>
+      </c>
+      <c r="D102" s="108">
         <v>446196.96</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="108">
+      <c r="A103" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B103" s="104" t="s">
+      <c r="B103" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C103" s="105">
-        <v>0</v>
-      </c>
-      <c r="D103" s="104">
+      <c r="C103" s="109">
+        <v>0</v>
+      </c>
+      <c r="D103" s="108">
         <v>41.51</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="108">
+      <c r="A104" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B104" s="104" t="s">
+      <c r="B104" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C104" s="105">
-        <v>0</v>
-      </c>
-      <c r="D104" s="104">
+      <c r="C104" s="109">
+        <v>0</v>
+      </c>
+      <c r="D104" s="108">
         <v>62.64</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="108">
+      <c r="A105" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B105" s="104" t="s">
+      <c r="B105" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C105" s="105">
-        <v>0</v>
-      </c>
-      <c r="D105" s="104">
+      <c r="C105" s="109">
+        <v>0</v>
+      </c>
+      <c r="D105" s="108">
         <v>62658.73</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="108">
+      <c r="A106" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B106" s="104" t="s">
+      <c r="B106" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C106" s="105">
-        <v>0</v>
-      </c>
-      <c r="D106" s="104">
+      <c r="C106" s="109">
+        <v>0</v>
+      </c>
+      <c r="D106" s="108">
         <v>26735.65</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="108">
+      <c r="A107" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B107" s="104" t="s">
+      <c r="B107" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C107" s="105">
-        <v>0</v>
-      </c>
-      <c r="D107" s="104">
+      <c r="C107" s="109">
+        <v>0</v>
+      </c>
+      <c r="D107" s="108">
         <v>371564.18</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="108">
+      <c r="A108" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C108" s="105">
-        <v>0</v>
-      </c>
-      <c r="D108" s="104">
+      <c r="C108" s="109">
+        <v>0</v>
+      </c>
+      <c r="D108" s="108">
         <v>522277.15</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="108">
+      <c r="A109" s="107">
         <v>101030701001</v>
       </c>
-      <c r="B109" s="104" t="s">
+      <c r="B109" s="108" t="s">
         <v>559</v>
       </c>
-      <c r="C109" s="105">
-        <v>0</v>
-      </c>
-      <c r="D109" s="104">
+      <c r="C109" s="109">
+        <v>0</v>
+      </c>
+      <c r="D109" s="108">
         <v>-2412</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="108">
+      <c r="A110" s="107">
         <v>1010308</v>
       </c>
-      <c r="B110" s="104" t="s">
+      <c r="B110" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="C110" s="105">
+      <c r="C110" s="109">
         <v>-43564.19</v>
       </c>
-      <c r="D110" s="104">
+      <c r="D110" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="108">
+      <c r="A111" s="107">
         <v>101030801</v>
       </c>
-      <c r="B111" s="104" t="s">
+      <c r="B111" s="108" t="s">
         <v>560</v>
       </c>
-      <c r="C111" s="105">
+      <c r="C111" s="109">
         <v>-43564.19</v>
       </c>
-      <c r="D111" s="104">
+      <c r="D111" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="108">
+      <c r="A112" s="107">
         <v>101030801001</v>
       </c>
-      <c r="B112" s="104" t="s">
+      <c r="B112" s="108" t="s">
         <v>561</v>
       </c>
-      <c r="C112" s="105">
+      <c r="C112" s="109">
         <v>-43564.19</v>
       </c>
-      <c r="D112" s="104">
+      <c r="D112" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="108">
+      <c r="A113" s="107">
         <v>10104</v>
       </c>
-      <c r="B113" s="104" t="s">
+      <c r="B113" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="C113" s="105">
+      <c r="C113" s="109">
         <v>1720.55</v>
       </c>
-      <c r="D113" s="104">
+      <c r="D113" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="108">
+      <c r="A114" s="107">
         <v>1010401</v>
       </c>
-      <c r="B114" s="104" t="s">
+      <c r="B114" s="108" t="s">
         <v>562</v>
       </c>
-      <c r="C114" s="105">
+      <c r="C114" s="109">
         <v>1720.55</v>
       </c>
-      <c r="D114" s="104">
+      <c r="D114" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="108">
+      <c r="A115" s="107">
         <v>101040101</v>
       </c>
-      <c r="B115" s="104" t="s">
+      <c r="B115" s="108" t="s">
         <v>563</v>
       </c>
-      <c r="C115" s="105">
+      <c r="C115" s="109">
         <v>1720.55</v>
       </c>
-      <c r="D115" s="104">
+      <c r="D115" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="108">
+      <c r="A116" s="107">
         <v>101040101001</v>
       </c>
-      <c r="B116" s="104" t="s">
+      <c r="B116" s="108" t="s">
         <v>564</v>
       </c>
-      <c r="C116" s="105">
+      <c r="C116" s="109">
         <v>972.05</v>
       </c>
-      <c r="D116" s="104">
+      <c r="D116" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="108">
+      <c r="A117" s="107">
         <v>101040101002</v>
       </c>
-      <c r="B117" s="104" t="s">
+      <c r="B117" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="C117" s="105">
+      <c r="C117" s="109">
         <v>748.5</v>
       </c>
-      <c r="D117" s="104">
+      <c r="D117" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="108">
+      <c r="A118" s="107">
         <v>101040101002</v>
       </c>
-      <c r="B118" s="104" t="s">
+      <c r="B118" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="C118" s="105">
-        <v>0</v>
-      </c>
-      <c r="D118" s="104">
+      <c r="C118" s="109">
+        <v>0</v>
+      </c>
+      <c r="D118" s="108">
         <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="108">
+      <c r="A119" s="107">
         <v>101040101002</v>
       </c>
-      <c r="B119" s="104" t="s">
+      <c r="B119" s="108" t="s">
         <v>565</v>
       </c>
-      <c r="C119" s="105">
-        <v>0</v>
-      </c>
-      <c r="D119" s="104">
+      <c r="C119" s="109">
+        <v>0</v>
+      </c>
+      <c r="D119" s="108">
         <v>148.5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="108">
+      <c r="A120" s="107">
         <v>10105</v>
       </c>
-      <c r="B120" s="104" t="s">
+      <c r="B120" s="108" t="s">
         <v>569</v>
       </c>
-      <c r="C120" s="105">
+      <c r="C120" s="109">
         <v>690681.51</v>
       </c>
-      <c r="D120" s="104">
+      <c r="D120" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="108">
+      <c r="A121" s="107">
         <v>1010501</v>
       </c>
-      <c r="B121" s="104" t="s">
+      <c r="B121" s="108" t="s">
         <v>570</v>
       </c>
-      <c r="C121" s="105">
+      <c r="C121" s="109">
         <v>5864.06</v>
       </c>
-      <c r="D121" s="104">
+      <c r="D121" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="108">
+      <c r="A122" s="107">
         <v>101050101</v>
       </c>
-      <c r="B122" s="104" t="s">
+      <c r="B122" s="108" t="s">
         <v>571</v>
       </c>
-      <c r="C122" s="105">
+      <c r="C122" s="109">
         <v>5864.06</v>
       </c>
-      <c r="D122" s="104">
+      <c r="D122" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="108">
+      <c r="A123" s="107">
         <v>101050101001</v>
       </c>
-      <c r="B123" s="104" t="s">
+      <c r="B123" s="108" t="s">
         <v>572</v>
       </c>
-      <c r="C123" s="105">
+      <c r="C123" s="109">
         <v>5864.06</v>
       </c>
-      <c r="D123" s="104">
+      <c r="D123" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="108">
+      <c r="A124" s="107">
         <v>1010502</v>
       </c>
-      <c r="B124" s="104" t="s">
+      <c r="B124" s="108" t="s">
         <v>574</v>
       </c>
-      <c r="C124" s="105">
+      <c r="C124" s="109">
         <v>480826.6</v>
       </c>
-      <c r="D124" s="104">
+      <c r="D124" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="108">
+      <c r="A125" s="107">
         <v>101050201</v>
       </c>
-      <c r="B125" s="104" t="s">
+      <c r="B125" s="108" t="s">
         <v>574</v>
       </c>
-      <c r="C125" s="105">
+      <c r="C125" s="109">
         <v>480826.6</v>
       </c>
-      <c r="D125" s="104">
+      <c r="D125" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="108">
+      <c r="A126" s="107">
         <v>101050201001</v>
       </c>
-      <c r="B126" s="104" t="s">
+      <c r="B126" s="108" t="s">
         <v>575</v>
       </c>
-      <c r="C126" s="105">
+      <c r="C126" s="109">
         <v>319931.03000000003</v>
       </c>
-      <c r="D126" s="104">
+      <c r="D126" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="108">
+      <c r="A127" s="107">
         <v>101050201002</v>
       </c>
-      <c r="B127" s="104" t="s">
+      <c r="B127" s="108" t="s">
         <v>576</v>
       </c>
-      <c r="C127" s="105">
+      <c r="C127" s="109">
         <v>214.29</v>
       </c>
-      <c r="D127" s="104">
+      <c r="D127" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="108">
+      <c r="A128" s="107">
         <v>101050201003</v>
       </c>
-      <c r="B128" s="104" t="s">
+      <c r="B128" s="108" t="s">
         <v>577</v>
       </c>
-      <c r="C128" s="105">
+      <c r="C128" s="109">
         <v>94274.34</v>
       </c>
-      <c r="D128" s="104">
+      <c r="D128" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="108">
+      <c r="A129" s="107">
         <v>101050201004</v>
       </c>
-      <c r="B129" s="104" t="s">
+      <c r="B129" s="108" t="s">
         <v>578</v>
       </c>
-      <c r="C129" s="105">
+      <c r="C129" s="109">
         <v>24500.880000000001</v>
       </c>
-      <c r="D129" s="104">
+      <c r="D129" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="108">
+      <c r="A130" s="107">
         <v>101050201005</v>
       </c>
-      <c r="B130" s="104" t="s">
+      <c r="B130" s="108" t="s">
         <v>579</v>
       </c>
-      <c r="C130" s="105">
+      <c r="C130" s="109">
         <v>113.31</v>
       </c>
-      <c r="D130" s="104">
+      <c r="D130" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="108">
+      <c r="A131" s="107">
         <v>101050201006</v>
       </c>
-      <c r="B131" s="104" t="s">
+      <c r="B131" s="108" t="s">
         <v>580</v>
       </c>
-      <c r="C131" s="105">
+      <c r="C131" s="109">
         <v>41792.75</v>
       </c>
-      <c r="D131" s="104">
+      <c r="D131" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="108">
+      <c r="A132" s="107">
         <v>101050201006</v>
       </c>
-      <c r="B132" s="104" t="s">
+      <c r="B132" s="108" t="s">
         <v>580</v>
       </c>
-      <c r="C132" s="105">
-        <v>0</v>
-      </c>
-      <c r="D132" s="104">
+      <c r="C132" s="109">
+        <v>0</v>
+      </c>
+      <c r="D132" s="108">
         <v>41792.75</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="108">
+      <c r="A133" s="107">
         <v>1010503</v>
       </c>
-      <c r="B133" s="104" t="s">
+      <c r="B133" s="108" t="s">
         <v>581</v>
       </c>
-      <c r="C133" s="105">
+      <c r="C133" s="109">
         <v>203990.85</v>
       </c>
-      <c r="D133" s="104">
+      <c r="D133" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="108">
+      <c r="A134" s="107">
         <v>101050301</v>
       </c>
-      <c r="B134" s="104" t="s">
+      <c r="B134" s="108" t="s">
         <v>581</v>
       </c>
-      <c r="C134" s="105">
+      <c r="C134" s="109">
         <v>203990.85</v>
       </c>
-      <c r="D134" s="104">
+      <c r="D134" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="108">
+      <c r="A135" s="107">
         <v>101050301002</v>
       </c>
-      <c r="B135" s="104" t="s">
+      <c r="B135" s="108" t="s">
         <v>1029</v>
       </c>
-      <c r="C135" s="105">
+      <c r="C135" s="109">
         <v>128063.89</v>
       </c>
-      <c r="D135" s="104">
+      <c r="D135" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="108">
+      <c r="A136" s="107">
         <v>101050301003</v>
       </c>
-      <c r="B136" s="104" t="s">
+      <c r="B136" s="108" t="s">
         <v>724</v>
       </c>
-      <c r="C136" s="105">
+      <c r="C136" s="109">
         <v>75926.960000000006</v>
       </c>
-      <c r="D136" s="104">
+      <c r="D136" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="108">
+      <c r="A137" s="107">
         <v>10106</v>
       </c>
-      <c r="B137" s="104" t="s">
+      <c r="B137" s="108" t="s">
         <v>583</v>
       </c>
-      <c r="C137" s="105">
+      <c r="C137" s="109">
         <v>14.15</v>
       </c>
-      <c r="D137" s="104">
+      <c r="D137" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="108">
+      <c r="A138" s="107">
         <v>1010601</v>
       </c>
-      <c r="B138" s="104" t="s">
+      <c r="B138" s="108" t="s">
         <v>583</v>
       </c>
-      <c r="C138" s="105">
+      <c r="C138" s="109">
         <v>14.15</v>
       </c>
-      <c r="D138" s="104">
+      <c r="D138" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="108">
+      <c r="A139" s="107">
         <v>101060101003</v>
       </c>
-      <c r="B139" s="104" t="s">
+      <c r="B139" s="108" t="s">
         <v>584</v>
       </c>
-      <c r="C139" s="105">
+      <c r="C139" s="109">
         <v>14.15</v>
       </c>
-      <c r="D139" s="104">
+      <c r="D139" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="108">
+      <c r="A140" s="107">
         <v>102</v>
       </c>
-      <c r="B140" s="104" t="s">
+      <c r="B140" s="108" t="s">
         <v>585</v>
       </c>
-      <c r="C140" s="105">
+      <c r="C140" s="109">
         <v>7905177.3700000001</v>
       </c>
-      <c r="D140" s="104">
+      <c r="D140" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="108">
+      <c r="A141" s="107">
         <v>10201</v>
       </c>
-      <c r="B141" s="104" t="s">
+      <c r="B141" s="108" t="s">
         <v>586</v>
       </c>
-      <c r="C141" s="105">
+      <c r="C141" s="109">
         <v>7905176.8099999996</v>
       </c>
-      <c r="D141" s="104">
+      <c r="D141" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="108">
+      <c r="A142" s="107">
         <v>1020101</v>
       </c>
-      <c r="B142" s="104" t="s">
+      <c r="B142" s="108" t="s">
         <v>587</v>
       </c>
-      <c r="C142" s="105">
+      <c r="C142" s="109">
         <v>3947399.34</v>
       </c>
-      <c r="D142" s="104">
+      <c r="D142" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="108">
+      <c r="A143" s="107">
         <v>102010101</v>
       </c>
-      <c r="B143" s="104" t="s">
+      <c r="B143" s="108" t="s">
         <v>588</v>
       </c>
-      <c r="C143" s="105">
+      <c r="C143" s="109">
         <v>3947399.34</v>
       </c>
-      <c r="D143" s="104">
+      <c r="D143" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="108">
+      <c r="A144" s="107">
         <v>102010101001</v>
       </c>
-      <c r="B144" s="104" t="s">
+      <c r="B144" s="108" t="s">
         <v>589</v>
       </c>
-      <c r="C144" s="105">
+      <c r="C144" s="109">
         <v>1898139.64</v>
       </c>
-      <c r="D144" s="104">
+      <c r="D144" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="108">
+      <c r="A145" s="107">
         <v>102010101002</v>
       </c>
-      <c r="B145" s="104" t="s">
+      <c r="B145" s="108" t="s">
         <v>590</v>
       </c>
-      <c r="C145" s="105">
+      <c r="C145" s="109">
         <v>2049259.7</v>
       </c>
-      <c r="D145" s="104">
+      <c r="D145" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="108">
+      <c r="A146" s="107">
         <v>1020102</v>
       </c>
-      <c r="B146" s="104" t="s">
+      <c r="B146" s="108" t="s">
         <v>591</v>
       </c>
-      <c r="C146" s="105">
+      <c r="C146" s="109">
         <v>8375215.04</v>
       </c>
-      <c r="D146" s="104">
+      <c r="D146" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="108">
+      <c r="A147" s="107">
         <v>102010201</v>
       </c>
-      <c r="B147" s="104" t="s">
+      <c r="B147" s="108" t="s">
         <v>592</v>
       </c>
-      <c r="C147" s="105">
+      <c r="C147" s="109">
         <v>8375215.04</v>
       </c>
-      <c r="D147" s="104">
+      <c r="D147" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="108">
+      <c r="A148" s="107">
         <v>102010201001</v>
       </c>
-      <c r="B148" s="104" t="s">
+      <c r="B148" s="108" t="s">
         <v>593</v>
       </c>
-      <c r="C148" s="105">
+      <c r="C148" s="109">
         <v>461156.96</v>
       </c>
-      <c r="D148" s="104">
+      <c r="D148" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="108">
+      <c r="A149" s="107">
         <v>102010201001</v>
       </c>
-      <c r="B149" s="104" t="s">
+      <c r="B149" s="108" t="s">
         <v>593</v>
       </c>
-      <c r="C149" s="105">
-        <v>0</v>
-      </c>
-      <c r="D149" s="104">
+      <c r="C149" s="109">
+        <v>0</v>
+      </c>
+      <c r="D149" s="108">
         <v>837702.14</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="108">
+      <c r="A150" s="107">
         <v>102010201001</v>
       </c>
-      <c r="B150" s="104" t="s">
+      <c r="B150" s="108" t="s">
         <v>593</v>
       </c>
-      <c r="C150" s="105">
-        <v>0</v>
-      </c>
-      <c r="D150" s="104">
+      <c r="C150" s="109">
+        <v>0</v>
+      </c>
+      <c r="D150" s="108">
         <v>-376545.18</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="108">
+      <c r="A151" s="107">
         <v>102010201004</v>
       </c>
-      <c r="B151" s="104" t="s">
+      <c r="B151" s="108" t="s">
         <v>594</v>
       </c>
-      <c r="C151" s="105">
+      <c r="C151" s="109">
         <v>203433.38</v>
       </c>
-      <c r="D151" s="104">
+      <c r="D151" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="108">
+      <c r="A152" s="107">
         <v>102010201005</v>
       </c>
-      <c r="B152" s="104" t="s">
+      <c r="B152" s="108" t="s">
         <v>595</v>
       </c>
-      <c r="C152" s="105">
+      <c r="C152" s="109">
         <v>6960593.8200000003</v>
       </c>
-      <c r="D152" s="104">
+      <c r="D152" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="108">
+      <c r="A153" s="107">
         <v>102010201006</v>
       </c>
-      <c r="B153" s="104" t="s">
+      <c r="B153" s="108" t="s">
         <v>596</v>
       </c>
-      <c r="C153" s="105">
+      <c r="C153" s="109">
         <v>15974.66</v>
       </c>
-      <c r="D153" s="104">
+      <c r="D153" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="108">
+      <c r="A154" s="107">
         <v>102010201007</v>
       </c>
-      <c r="B154" s="104" t="s">
+      <c r="B154" s="108" t="s">
         <v>597</v>
       </c>
-      <c r="C154" s="105">
+      <c r="C154" s="109">
         <v>144593.10999999999</v>
       </c>
-      <c r="D154" s="104">
+      <c r="D154" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="108">
+      <c r="A155" s="107">
         <v>102010201009</v>
       </c>
-      <c r="B155" s="104" t="s">
+      <c r="B155" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="C155" s="105">
+      <c r="C155" s="109">
         <v>589463.11</v>
       </c>
-      <c r="D155" s="104">
+      <c r="D155" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="108">
+      <c r="A156" s="107">
         <v>1020103</v>
       </c>
-      <c r="B156" s="104" t="s">
+      <c r="B156" s="108" t="s">
         <v>599</v>
       </c>
-      <c r="C156" s="105">
+      <c r="C156" s="109">
         <v>-4417437.57</v>
       </c>
-      <c r="D156" s="104">
+      <c r="D156" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="108">
+      <c r="A157" s="107">
         <v>102010301</v>
       </c>
-      <c r="B157" s="104" t="s">
+      <c r="B157" s="108" t="s">
         <v>600</v>
       </c>
-      <c r="C157" s="105">
+      <c r="C157" s="109">
         <v>-4417437.57</v>
       </c>
-      <c r="D157" s="104">
+      <c r="D157" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="108">
+      <c r="A158" s="107">
         <v>102010301001</v>
       </c>
-      <c r="B158" s="104" t="s">
+      <c r="B158" s="108" t="s">
         <v>601</v>
       </c>
-      <c r="C158" s="105">
+      <c r="C158" s="109">
         <v>-14336.28</v>
       </c>
-      <c r="D158" s="104">
+      <c r="D158" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="108">
+      <c r="A159" s="107">
         <v>102010301004</v>
       </c>
-      <c r="B159" s="104" t="s">
+      <c r="B159" s="108" t="s">
         <v>602</v>
       </c>
-      <c r="C159" s="105">
+      <c r="C159" s="109">
         <v>-161795.23000000001</v>
       </c>
-      <c r="D159" s="104">
+      <c r="D159" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="108">
+      <c r="A160" s="107">
         <v>102010301005</v>
       </c>
-      <c r="B160" s="104" t="s">
+      <c r="B160" s="108" t="s">
         <v>603</v>
       </c>
-      <c r="C160" s="105">
+      <c r="C160" s="109">
         <v>-3749188.75</v>
       </c>
-      <c r="D160" s="104">
+      <c r="D160" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="108">
+      <c r="A161" s="107">
         <v>102010301006</v>
       </c>
-      <c r="B161" s="104" t="s">
+      <c r="B161" s="108" t="s">
         <v>604</v>
       </c>
-      <c r="C161" s="105">
+      <c r="C161" s="109">
         <v>-15656.22</v>
       </c>
-      <c r="D161" s="104">
+      <c r="D161" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="108">
+      <c r="A162" s="107">
         <v>102010301007</v>
       </c>
-      <c r="B162" s="104" t="s">
+      <c r="B162" s="108" t="s">
         <v>605</v>
       </c>
-      <c r="C162" s="105">
+      <c r="C162" s="109">
         <v>-121541.75</v>
       </c>
-      <c r="D162" s="104">
+      <c r="D162" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="108">
+      <c r="A163" s="107">
         <v>102010301009</v>
       </c>
-      <c r="B163" s="104" t="s">
+      <c r="B163" s="108" t="s">
         <v>606</v>
       </c>
-      <c r="C163" s="105">
+      <c r="C163" s="109">
         <v>-354919.34</v>
       </c>
-      <c r="D163" s="104">
+      <c r="D163" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="108">
+      <c r="A164" s="107">
         <v>10202</v>
       </c>
-      <c r="B164" s="104" t="s">
+      <c r="B164" s="108" t="s">
         <v>607</v>
       </c>
-      <c r="C164" s="105">
+      <c r="C164" s="109">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D164" s="104">
+      <c r="D164" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="108">
+      <c r="A165" s="107">
         <v>1020201</v>
       </c>
-      <c r="B165" s="104" t="s">
+      <c r="B165" s="108" t="s">
         <v>608</v>
       </c>
-      <c r="C165" s="105">
+      <c r="C165" s="109">
         <v>82108</v>
       </c>
-      <c r="D165" s="104">
+      <c r="D165" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="108">
+      <c r="A166" s="107">
         <v>102020101</v>
       </c>
-      <c r="B166" s="104" t="s">
+      <c r="B166" s="108" t="s">
         <v>609</v>
       </c>
-      <c r="C166" s="105">
+      <c r="C166" s="109">
         <v>82108</v>
       </c>
-      <c r="D166" s="104">
+      <c r="D166" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="108">
+      <c r="A167" s="107">
         <v>102020101004</v>
       </c>
-      <c r="B167" s="104" t="s">
+      <c r="B167" s="108" t="s">
         <v>610</v>
       </c>
-      <c r="C167" s="105">
+      <c r="C167" s="109">
         <v>82108</v>
       </c>
-      <c r="D167" s="104">
+      <c r="D167" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="108">
+      <c r="A168" s="107">
         <v>1020202</v>
       </c>
-      <c r="B168" s="104" t="s">
+      <c r="B168" s="108" t="s">
         <v>611</v>
       </c>
-      <c r="C168" s="105">
+      <c r="C168" s="109">
         <v>-82107.44</v>
       </c>
-      <c r="D168" s="104">
+      <c r="D168" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="108">
+      <c r="A169" s="107">
         <v>102020201</v>
       </c>
-      <c r="B169" s="104" t="s">
+      <c r="B169" s="108" t="s">
         <v>611</v>
       </c>
-      <c r="C169" s="105">
+      <c r="C169" s="109">
         <v>-82107.44</v>
       </c>
-      <c r="D169" s="104">
+      <c r="D169" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="108">
+      <c r="A170" s="107">
         <v>102020201001</v>
       </c>
-      <c r="B170" s="104" t="s">
+      <c r="B170" s="108" t="s">
         <v>612</v>
       </c>
-      <c r="C170" s="105">
+      <c r="C170" s="109">
         <v>-82107.44</v>
       </c>
-      <c r="D170" s="104">
+      <c r="D170" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="108">
+      <c r="A171" s="107">
         <v>102060101002</v>
       </c>
-      <c r="B171" s="104" t="s">
+      <c r="B171" s="108" t="s">
         <v>1030</v>
       </c>
-      <c r="C171" s="105">
-        <v>0</v>
-      </c>
-      <c r="D171" s="104">
+      <c r="C171" s="109">
+        <v>0</v>
+      </c>
+      <c r="D171" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="108">
+      <c r="A172" s="107">
         <v>102060101002</v>
       </c>
-      <c r="B172" s="104" t="s">
+      <c r="B172" s="108" t="s">
         <v>1030</v>
       </c>
-      <c r="C172" s="105">
-        <v>0</v>
-      </c>
-      <c r="D172" s="104">
+      <c r="C172" s="109">
+        <v>0</v>
+      </c>
+      <c r="D172" s="108">
         <v>-782.8</v>
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="108">
+      <c r="A173" s="107">
         <v>102060101002</v>
       </c>
-      <c r="B173" s="104" t="s">
+      <c r="B173" s="108" t="s">
         <v>1030</v>
       </c>
-      <c r="C173" s="105">
-        <v>0</v>
-      </c>
-      <c r="D173" s="104">
+      <c r="C173" s="109">
+        <v>0</v>
+      </c>
+      <c r="D173" s="108">
         <v>782.8</v>
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="108">
+      <c r="A174" s="107">
         <v>104</v>
       </c>
-      <c r="B174" s="104" t="s">
+      <c r="B174" s="108" t="s">
         <v>613</v>
       </c>
-      <c r="C174" s="105">
+      <c r="C174" s="109">
         <v>38708.81</v>
       </c>
-      <c r="D174" s="104">
+      <c r="D174" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="108">
+      <c r="A175" s="107">
         <v>10401</v>
       </c>
-      <c r="B175" s="104" t="s">
+      <c r="B175" s="108" t="s">
         <v>613</v>
       </c>
-      <c r="C175" s="105">
+      <c r="C175" s="109">
         <v>38708.81</v>
       </c>
-      <c r="D175" s="104">
+      <c r="D175" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="108">
+      <c r="A176" s="107">
         <v>1040101</v>
       </c>
-      <c r="B176" s="104" t="s">
+      <c r="B176" s="108" t="s">
         <v>613</v>
       </c>
-      <c r="C176" s="105">
+      <c r="C176" s="109">
         <v>38708.81</v>
       </c>
-      <c r="D176" s="104">
+      <c r="D176" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="108">
+      <c r="A177" s="107">
         <v>104010101</v>
       </c>
-      <c r="B177" s="104" t="s">
+      <c r="B177" s="108" t="s">
         <v>613</v>
       </c>
-      <c r="C177" s="105">
+      <c r="C177" s="109">
         <v>38708.81</v>
       </c>
-      <c r="D177" s="104">
+      <c r="D177" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="108">
+      <c r="A178" s="107">
         <v>104010101001</v>
       </c>
-      <c r="B178" s="104" t="s">
+      <c r="B178" s="108" t="s">
         <v>614</v>
       </c>
-      <c r="C178" s="105">
+      <c r="C178" s="109">
         <v>38708.81</v>
       </c>
-      <c r="D178" s="104">
+      <c r="D178" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="108">
+      <c r="A179" s="107">
         <v>2</v>
       </c>
-      <c r="B179" s="104" t="s">
+      <c r="B179" s="108" t="s">
         <v>615</v>
       </c>
-      <c r="C179" s="105">
+      <c r="C179" s="109">
         <v>11239779.939999999</v>
       </c>
-      <c r="D179" s="104">
+      <c r="D179" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="108">
+      <c r="A180" s="107">
         <v>201</v>
       </c>
-      <c r="B180" s="104" t="s">
+      <c r="B180" s="108" t="s">
         <v>616</v>
       </c>
-      <c r="C180" s="105">
+      <c r="C180" s="109">
         <v>10450901.26</v>
       </c>
-      <c r="D180" s="104">
+      <c r="D180" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="108">
+      <c r="A181" s="107">
         <v>20103</v>
       </c>
-      <c r="B181" s="104" t="s">
+      <c r="B181" s="108" t="s">
         <v>617</v>
       </c>
-      <c r="C181" s="105">
+      <c r="C181" s="109">
         <v>9968443.8200000003</v>
       </c>
-      <c r="D181" s="104">
+      <c r="D181" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="108">
+      <c r="A182" s="107">
         <v>2010301</v>
       </c>
-      <c r="B182" s="104" t="s">
+      <c r="B182" s="108" t="s">
         <v>618</v>
       </c>
-      <c r="C182" s="105">
+      <c r="C182" s="109">
         <v>623256.07999999996</v>
       </c>
-      <c r="D182" s="104">
+      <c r="D182" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="108">
+      <c r="A183" s="107">
         <v>201030101</v>
       </c>
-      <c r="B183" s="104" t="s">
+      <c r="B183" s="108" t="s">
         <v>618</v>
       </c>
-      <c r="C183" s="105">
+      <c r="C183" s="109">
         <v>623256.07999999996</v>
       </c>
-      <c r="D183" s="104">
+      <c r="D183" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="108">
+      <c r="A184" s="107">
         <v>201030101001</v>
       </c>
-      <c r="B184" s="104" t="s">
+      <c r="B184" s="108" t="s">
         <v>619</v>
       </c>
-      <c r="C184" s="105">
+      <c r="C184" s="109">
         <v>518102.87</v>
       </c>
-      <c r="D184" s="104">
+      <c r="D184" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="108">
+      <c r="A185" s="107">
         <v>201030101002</v>
       </c>
-      <c r="B185" s="104" t="s">
+      <c r="B185" s="108" t="s">
         <v>620</v>
       </c>
-      <c r="C185" s="105">
+      <c r="C185" s="109">
         <v>105153.21</v>
       </c>
-      <c r="D185" s="104">
+      <c r="D185" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="108">
+      <c r="A186" s="107">
         <v>2010302</v>
       </c>
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="108" t="s">
         <v>621</v>
       </c>
-      <c r="C186" s="105">
+      <c r="C186" s="109">
         <v>4489090.5199999996</v>
       </c>
-      <c r="D186" s="104">
+      <c r="D186" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="108">
+      <c r="A187" s="107">
         <v>201030201</v>
       </c>
-      <c r="B187" s="104" t="s">
+      <c r="B187" s="108" t="s">
         <v>621</v>
       </c>
-      <c r="C187" s="105">
+      <c r="C187" s="109">
         <v>4489090.5199999996</v>
       </c>
-      <c r="D187" s="104">
+      <c r="D187" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="108">
+      <c r="A188" s="107">
         <v>201030201001</v>
       </c>
-      <c r="B188" s="104" t="s">
+      <c r="B188" s="108" t="s">
         <v>622</v>
       </c>
-      <c r="C188" s="105">
+      <c r="C188" s="109">
         <v>4481090.5199999996</v>
       </c>
-      <c r="D188" s="104">
+      <c r="D188" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="108">
+      <c r="A189" s="107">
         <v>201030201002</v>
       </c>
-      <c r="B189" s="104" t="s">
+      <c r="B189" s="108" t="s">
         <v>623</v>
       </c>
-      <c r="C189" s="105">
+      <c r="C189" s="109">
         <v>8000</v>
       </c>
-      <c r="D189" s="104">
+      <c r="D189" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="108">
+      <c r="A190" s="107">
         <v>2010304</v>
       </c>
-      <c r="B190" s="104" t="s">
+      <c r="B190" s="108" t="s">
         <v>624</v>
       </c>
-      <c r="C190" s="105">
+      <c r="C190" s="109">
         <v>4856097.22</v>
       </c>
-      <c r="D190" s="104">
+      <c r="D190" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="108">
+      <c r="A191" s="107">
         <v>201030401</v>
       </c>
-      <c r="B191" s="104" t="s">
+      <c r="B191" s="108" t="s">
         <v>624</v>
       </c>
-      <c r="C191" s="105">
+      <c r="C191" s="109">
         <v>4856097.22</v>
       </c>
-      <c r="D191" s="104">
+      <c r="D191" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="108">
+      <c r="A192" s="107">
         <v>201030401001</v>
       </c>
-      <c r="B192" s="104" t="s">
+      <c r="B192" s="108" t="s">
         <v>625</v>
       </c>
-      <c r="C192" s="105">
+      <c r="C192" s="109">
         <v>23534.84</v>
       </c>
-      <c r="D192" s="104">
+      <c r="D192" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="108">
+      <c r="A193" s="107">
         <v>201030401002</v>
       </c>
-      <c r="B193" s="104" t="s">
+      <c r="B193" s="108" t="s">
         <v>626</v>
       </c>
-      <c r="C193" s="105">
+      <c r="C193" s="109">
         <v>280.5</v>
       </c>
-      <c r="D193" s="104">
+      <c r="D193" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="108">
+      <c r="A194" s="107">
         <v>201030401002</v>
       </c>
-      <c r="B194" s="104" t="s">
+      <c r="B194" s="108" t="s">
         <v>626</v>
       </c>
-      <c r="C194" s="105">
-        <v>0</v>
-      </c>
-      <c r="D194" s="104">
+      <c r="C194" s="109">
+        <v>0</v>
+      </c>
+      <c r="D194" s="108">
         <v>272.5</v>
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="108">
+      <c r="A195" s="107">
         <v>201030401002</v>
       </c>
-      <c r="B195" s="104" t="s">
+      <c r="B195" s="108" t="s">
         <v>626</v>
       </c>
-      <c r="C195" s="105">
-        <v>0</v>
-      </c>
-      <c r="D195" s="104">
+      <c r="C195" s="109">
+        <v>0</v>
+      </c>
+      <c r="D195" s="108">
         <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="108">
+      <c r="A196" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B196" s="104" t="s">
+      <c r="B196" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C196" s="105">
+      <c r="C196" s="109">
         <v>4831441.8600000003</v>
       </c>
-      <c r="D196" s="104">
+      <c r="D196" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="108">
+      <c r="A197" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B197" s="104" t="s">
+      <c r="B197" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C197" s="105">
-        <v>0</v>
-      </c>
-      <c r="D197" s="104">
+      <c r="C197" s="109">
+        <v>0</v>
+      </c>
+      <c r="D197" s="108">
         <v>-560</v>
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="108">
+      <c r="A198" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B198" s="104" t="s">
+      <c r="B198" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C198" s="105">
-        <v>0</v>
-      </c>
-      <c r="D198" s="104">
+      <c r="C198" s="109">
+        <v>0</v>
+      </c>
+      <c r="D198" s="108">
         <v>753.93</v>
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="108">
+      <c r="A199" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B199" s="104" t="s">
+      <c r="B199" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C199" s="105">
-        <v>0</v>
-      </c>
-      <c r="D199" s="104">
+      <c r="C199" s="109">
+        <v>0</v>
+      </c>
+      <c r="D199" s="108">
         <v>201409.52</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="108">
+      <c r="A200" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B200" s="104" t="s">
+      <c r="B200" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C200" s="105">
-        <v>0</v>
-      </c>
-      <c r="D200" s="104">
+      <c r="C200" s="109">
+        <v>0</v>
+      </c>
+      <c r="D200" s="108">
         <v>25</v>
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="108">
+      <c r="A201" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B201" s="104" t="s">
+      <c r="B201" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C201" s="105">
-        <v>0</v>
-      </c>
-      <c r="D201" s="104">
+      <c r="C201" s="109">
+        <v>0</v>
+      </c>
+      <c r="D201" s="108">
         <v>71887.850000000006</v>
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="108">
+      <c r="A202" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B202" s="104" t="s">
+      <c r="B202" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C202" s="105">
-        <v>0</v>
-      </c>
-      <c r="D202" s="104">
+      <c r="C202" s="109">
+        <v>0</v>
+      </c>
+      <c r="D202" s="108">
         <v>4469575.51</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="108">
+      <c r="A203" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B203" s="104" t="s">
+      <c r="B203" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C203" s="105">
-        <v>0</v>
-      </c>
-      <c r="D203" s="104">
+      <c r="C203" s="109">
+        <v>0</v>
+      </c>
+      <c r="D203" s="108">
         <v>98.44</v>
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="108">
+      <c r="A204" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B204" s="104" t="s">
+      <c r="B204" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C204" s="105">
-        <v>0</v>
-      </c>
-      <c r="D204" s="104">
+      <c r="C204" s="109">
+        <v>0</v>
+      </c>
+      <c r="D204" s="108">
         <v>109182.54</v>
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="108">
+      <c r="A205" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B205" s="104" t="s">
+      <c r="B205" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C205" s="105">
-        <v>0</v>
-      </c>
-      <c r="D205" s="104">
+      <c r="C205" s="109">
+        <v>0</v>
+      </c>
+      <c r="D205" s="108">
         <v>1686.8</v>
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="108">
+      <c r="A206" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B206" s="104" t="s">
+      <c r="B206" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C206" s="105">
-        <v>0</v>
-      </c>
-      <c r="D206" s="104">
+      <c r="C206" s="109">
+        <v>0</v>
+      </c>
+      <c r="D206" s="108">
         <v>-26605.439999999999</v>
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="108">
+      <c r="A207" s="107">
         <v>201030401003</v>
       </c>
-      <c r="B207" s="104" t="s">
+      <c r="B207" s="108" t="s">
         <v>627</v>
       </c>
-      <c r="C207" s="105">
-        <v>0</v>
-      </c>
-      <c r="D207" s="104">
+      <c r="C207" s="109">
+        <v>0</v>
+      </c>
+      <c r="D207" s="108">
         <v>3987.71</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="108">
+      <c r="A208" s="107">
         <v>201030401004</v>
       </c>
-      <c r="B208" s="104" t="s">
+      <c r="B208" s="108" t="s">
         <v>628</v>
       </c>
-      <c r="C208" s="105">
-        <v>0</v>
-      </c>
-      <c r="D208" s="104">
+      <c r="C208" s="109">
+        <v>0</v>
+      </c>
+      <c r="D208" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="108">
+      <c r="A209" s="107">
         <v>201030401004</v>
       </c>
-      <c r="B209" s="104" t="s">
+      <c r="B209" s="108" t="s">
         <v>628</v>
       </c>
-      <c r="C209" s="105">
-        <v>0</v>
-      </c>
-      <c r="D209" s="104">
+      <c r="C209" s="109">
+        <v>0</v>
+      </c>
+      <c r="D209" s="108">
         <v>-30840</v>
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="108">
+      <c r="A210" s="107">
         <v>201030401004</v>
       </c>
-      <c r="B210" s="104" t="s">
+      <c r="B210" s="108" t="s">
         <v>628</v>
       </c>
-      <c r="C210" s="105">
-        <v>0</v>
-      </c>
-      <c r="D210" s="104">
+      <c r="C210" s="109">
+        <v>0</v>
+      </c>
+      <c r="D210" s="108">
         <v>30840</v>
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="108">
+      <c r="A211" s="107">
         <v>201030401005</v>
       </c>
-      <c r="B211" s="104" t="s">
+      <c r="B211" s="108" t="s">
         <v>629</v>
       </c>
-      <c r="C211" s="105">
+      <c r="C211" s="109">
         <v>840.02</v>
       </c>
-      <c r="D211" s="104">
+      <c r="D211" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="108">
+      <c r="A212" s="107">
         <v>201040101007</v>
       </c>
-      <c r="B212" s="104" t="s">
+      <c r="B212" s="108" t="s">
         <v>634</v>
       </c>
-      <c r="C212" s="105">
-        <v>0</v>
-      </c>
-      <c r="D212" s="104">
+      <c r="C212" s="109">
+        <v>0</v>
+      </c>
+      <c r="D212" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="108">
+      <c r="A213" s="107">
         <v>201040101007</v>
       </c>
-      <c r="B213" s="104" t="s">
+      <c r="B213" s="108" t="s">
         <v>634</v>
       </c>
-      <c r="C213" s="105">
-        <v>0</v>
-      </c>
-      <c r="D213" s="104">
+      <c r="C213" s="109">
+        <v>0</v>
+      </c>
+      <c r="D213" s="108">
         <v>-0.01</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="108">
+      <c r="A214" s="107">
         <v>201040101007</v>
       </c>
-      <c r="B214" s="104" t="s">
+      <c r="B214" s="108" t="s">
         <v>634</v>
       </c>
-      <c r="C214" s="105">
-        <v>0</v>
-      </c>
-      <c r="D214" s="104">
+      <c r="C214" s="109">
+        <v>0</v>
+      </c>
+      <c r="D214" s="108">
         <v>0.01</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="108">
+      <c r="A215" s="107">
         <v>201040101008</v>
       </c>
-      <c r="B215" s="104" t="s">
+      <c r="B215" s="108" t="s">
         <v>725</v>
       </c>
-      <c r="C215" s="105">
+      <c r="C215" s="109">
         <v>-823.06</v>
       </c>
-      <c r="D215" s="104">
+      <c r="D215" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="108">
+      <c r="A216" s="107">
         <v>201040101008</v>
       </c>
-      <c r="B216" s="104" t="s">
+      <c r="B216" s="108" t="s">
         <v>725</v>
       </c>
-      <c r="C216" s="105">
-        <v>0</v>
-      </c>
-      <c r="D216" s="104">
+      <c r="C216" s="109">
+        <v>0</v>
+      </c>
+      <c r="D216" s="108">
         <v>-823.06</v>
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="108">
+      <c r="A217" s="107">
         <v>20105</v>
       </c>
-      <c r="B217" s="104" t="s">
+      <c r="B217" s="108" t="s">
         <v>635</v>
       </c>
-      <c r="C217" s="105">
+      <c r="C217" s="109">
         <v>352887.65</v>
       </c>
-      <c r="D217" s="104">
+      <c r="D217" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="108">
+      <c r="A218" s="107">
         <v>2010501</v>
       </c>
-      <c r="B218" s="104" t="s">
+      <c r="B218" s="108" t="s">
         <v>636</v>
       </c>
-      <c r="C218" s="105">
+      <c r="C218" s="109">
         <v>25114.1</v>
       </c>
-      <c r="D218" s="104">
+      <c r="D218" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="108">
+      <c r="A219" s="107">
         <v>201050102</v>
       </c>
-      <c r="B219" s="104" t="s">
+      <c r="B219" s="108" t="s">
         <v>637</v>
       </c>
-      <c r="C219" s="105">
+      <c r="C219" s="109">
         <v>25114.1</v>
       </c>
-      <c r="D219" s="104">
+      <c r="D219" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="108">
+      <c r="A220" s="107">
         <v>201050102006</v>
       </c>
-      <c r="B220" s="104" t="s">
+      <c r="B220" s="108" t="s">
         <v>638</v>
       </c>
-      <c r="C220" s="105">
+      <c r="C220" s="109">
         <v>25114.1</v>
       </c>
-      <c r="D220" s="104">
+      <c r="D220" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="108">
+      <c r="A221" s="107">
         <v>2010503</v>
       </c>
-      <c r="B221" s="104" t="s">
+      <c r="B221" s="108" t="s">
         <v>639</v>
       </c>
-      <c r="C221" s="105">
+      <c r="C221" s="109">
         <v>42341.89</v>
       </c>
-      <c r="D221" s="104">
+      <c r="D221" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="108">
+      <c r="A222" s="107">
         <v>201050301</v>
       </c>
-      <c r="B222" s="104" t="s">
+      <c r="B222" s="108" t="s">
         <v>640</v>
       </c>
-      <c r="C222" s="105">
+      <c r="C222" s="109">
         <v>42341.89</v>
       </c>
-      <c r="D222" s="104">
+      <c r="D222" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="108">
+      <c r="A223" s="107">
         <v>201050301001</v>
       </c>
-      <c r="B223" s="104" t="s">
+      <c r="B223" s="108" t="s">
         <v>641</v>
       </c>
-      <c r="C223" s="105">
+      <c r="C223" s="109">
         <v>11612.56</v>
       </c>
-      <c r="D223" s="104">
+      <c r="D223" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="108">
+      <c r="A224" s="107">
         <v>201050301002</v>
       </c>
-      <c r="B224" s="104" t="s">
+      <c r="B224" s="108" t="s">
         <v>642</v>
       </c>
-      <c r="C224" s="105">
+      <c r="C224" s="109">
         <v>15322.35</v>
       </c>
-      <c r="D224" s="104">
+      <c r="D224" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="108">
+      <c r="A225" s="107">
         <v>201050301003</v>
       </c>
-      <c r="B225" s="104" t="s">
+      <c r="B225" s="108" t="s">
         <v>643</v>
       </c>
-      <c r="C225" s="105">
+      <c r="C225" s="109">
         <v>3539.62</v>
       </c>
-      <c r="D225" s="104">
+      <c r="D225" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="108">
+      <c r="A226" s="107">
         <v>201050301004</v>
       </c>
-      <c r="B226" s="104" t="s">
+      <c r="B226" s="108" t="s">
         <v>644</v>
       </c>
-      <c r="C226" s="105">
+      <c r="C226" s="109">
         <v>7653.02</v>
       </c>
-      <c r="D226" s="104">
+      <c r="D226" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="108">
+      <c r="A227" s="107">
         <v>201050301005</v>
       </c>
-      <c r="B227" s="104" t="s">
+      <c r="B227" s="108" t="s">
         <v>645</v>
       </c>
-      <c r="C227" s="105">
+      <c r="C227" s="109">
         <v>3269.91</v>
       </c>
-      <c r="D227" s="104">
+      <c r="D227" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="108">
+      <c r="A228" s="107">
         <v>201050301009</v>
       </c>
-      <c r="B228" s="104" t="s">
+      <c r="B228" s="108" t="s">
         <v>646</v>
       </c>
-      <c r="C228" s="105">
+      <c r="C228" s="109">
         <v>601.17999999999995</v>
       </c>
-      <c r="D228" s="104">
+      <c r="D228" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="108">
+      <c r="A229" s="107">
         <v>201050301009</v>
       </c>
-      <c r="B229" s="104" t="s">
+      <c r="B229" s="108" t="s">
         <v>646</v>
       </c>
-      <c r="C229" s="105">
-        <v>0</v>
-      </c>
-      <c r="D229" s="104">
+      <c r="C229" s="109">
+        <v>0</v>
+      </c>
+      <c r="D229" s="108">
         <v>-285</v>
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="108">
+      <c r="A230" s="107">
         <v>201050301009</v>
       </c>
-      <c r="B230" s="104" t="s">
+      <c r="B230" s="108" t="s">
         <v>646</v>
       </c>
-      <c r="C230" s="105">
-        <v>0</v>
-      </c>
-      <c r="D230" s="104">
+      <c r="C230" s="109">
+        <v>0</v>
+      </c>
+      <c r="D230" s="108">
         <v>71.59</v>
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="108">
+      <c r="A231" s="107">
         <v>201050301009</v>
       </c>
-      <c r="B231" s="104" t="s">
+      <c r="B231" s="108" t="s">
         <v>646</v>
       </c>
-      <c r="C231" s="105">
-        <v>0</v>
-      </c>
-      <c r="D231" s="104">
+      <c r="C231" s="109">
+        <v>0</v>
+      </c>
+      <c r="D231" s="108">
         <v>814.59</v>
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="108">
+      <c r="A232" s="107">
         <v>201050301010</v>
       </c>
-      <c r="B232" s="104" t="s">
+      <c r="B232" s="108" t="s">
         <v>647</v>
       </c>
-      <c r="C232" s="105">
+      <c r="C232" s="109">
         <v>343.25</v>
       </c>
-      <c r="D232" s="104">
+      <c r="D232" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="108">
+      <c r="A233" s="107">
         <v>2010504</v>
       </c>
-      <c r="B233" s="104" t="s">
+      <c r="B233" s="108" t="s">
         <v>648</v>
       </c>
-      <c r="C233" s="105">
+      <c r="C233" s="109">
         <v>285706.71000000002</v>
       </c>
-      <c r="D233" s="104">
+      <c r="D233" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="108">
+      <c r="A234" s="107">
         <v>201050401</v>
       </c>
-      <c r="B234" s="104" t="s">
+      <c r="B234" s="108" t="s">
         <v>648</v>
       </c>
-      <c r="C234" s="105">
+      <c r="C234" s="109">
         <v>285706.71000000002</v>
       </c>
-      <c r="D234" s="104">
+      <c r="D234" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="108">
+      <c r="A235" s="107">
         <v>201050401001</v>
       </c>
-      <c r="B235" s="104" t="s">
+      <c r="B235" s="108" t="s">
         <v>649</v>
       </c>
-      <c r="C235" s="105">
+      <c r="C235" s="109">
         <v>89175.89</v>
       </c>
-      <c r="D235" s="104">
+      <c r="D235" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="108">
+      <c r="A236" s="107">
         <v>201050401002</v>
       </c>
-      <c r="B236" s="104" t="s">
+      <c r="B236" s="108" t="s">
         <v>650</v>
       </c>
-      <c r="C236" s="105">
+      <c r="C236" s="109">
         <v>30697.83</v>
       </c>
-      <c r="D236" s="104">
+      <c r="D236" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="108">
+      <c r="A237" s="107">
         <v>201050401003</v>
       </c>
-      <c r="B237" s="104" t="s">
+      <c r="B237" s="108" t="s">
         <v>651</v>
       </c>
-      <c r="C237" s="105">
+      <c r="C237" s="109">
         <v>153989.1</v>
       </c>
-      <c r="D237" s="104">
+      <c r="D237" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="108">
+      <c r="A238" s="107">
         <v>201050401004</v>
       </c>
-      <c r="B238" s="104" t="s">
+      <c r="B238" s="108" t="s">
         <v>652</v>
       </c>
-      <c r="C238" s="105">
+      <c r="C238" s="109">
         <v>600.5</v>
       </c>
-      <c r="D238" s="104">
+      <c r="D238" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="108">
+      <c r="A239" s="107">
         <v>201050401006</v>
       </c>
-      <c r="B239" s="104" t="s">
+      <c r="B239" s="108" t="s">
         <v>653</v>
       </c>
-      <c r="C239" s="105">
+      <c r="C239" s="109">
         <v>3220.56</v>
       </c>
-      <c r="D239" s="104">
+      <c r="D239" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="108">
+      <c r="A240" s="107">
         <v>201050401007</v>
       </c>
-      <c r="B240" s="104" t="s">
+      <c r="B240" s="108" t="s">
         <v>654</v>
       </c>
-      <c r="C240" s="105">
+      <c r="C240" s="109">
         <v>8022.83</v>
       </c>
-      <c r="D240" s="104">
+      <c r="D240" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="108">
+      <c r="A241" s="107">
         <v>2010505</v>
       </c>
-      <c r="B241" s="104" t="s">
+      <c r="B241" s="108" t="s">
         <v>655</v>
       </c>
-      <c r="C241" s="105">
+      <c r="C241" s="109">
         <v>-275.05</v>
       </c>
-      <c r="D241" s="104">
+      <c r="D241" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="108">
+      <c r="A242" s="107">
         <v>201050501</v>
       </c>
-      <c r="B242" s="104" t="s">
+      <c r="B242" s="108" t="s">
         <v>655</v>
       </c>
-      <c r="C242" s="105">
+      <c r="C242" s="109">
         <v>-275.05</v>
       </c>
-      <c r="D242" s="104">
+      <c r="D242" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="108">
+      <c r="A243" s="107">
         <v>201050501001</v>
       </c>
-      <c r="B243" s="104" t="s">
+      <c r="B243" s="108" t="s">
         <v>656</v>
       </c>
-      <c r="C243" s="105">
+      <c r="C243" s="109">
         <v>-275.05</v>
       </c>
-      <c r="D243" s="104">
+      <c r="D243" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="108">
+      <c r="A244" s="107">
         <v>20107</v>
       </c>
-      <c r="B244" s="104" t="s">
+      <c r="B244" s="108" t="s">
         <v>657</v>
       </c>
-      <c r="C244" s="105">
+      <c r="C244" s="109">
         <v>129569.79</v>
       </c>
-      <c r="D244" s="104">
+      <c r="D244" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="108">
+      <c r="A245" s="107">
         <v>2010701</v>
       </c>
-      <c r="B245" s="104" t="s">
+      <c r="B245" s="108" t="s">
         <v>658</v>
       </c>
-      <c r="C245" s="105">
+      <c r="C245" s="109">
         <v>129569.79</v>
       </c>
-      <c r="D245" s="104">
+      <c r="D245" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="108">
+      <c r="A246" s="107">
         <v>201070101</v>
       </c>
-      <c r="B246" s="104" t="s">
+      <c r="B246" s="108" t="s">
         <v>658</v>
       </c>
-      <c r="C246" s="105">
+      <c r="C246" s="109">
         <v>129569.79</v>
       </c>
-      <c r="D246" s="104">
+      <c r="D246" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="108">
+      <c r="A247" s="107">
         <v>201070101001</v>
       </c>
-      <c r="B247" s="104" t="s">
+      <c r="B247" s="108" t="s">
         <v>659</v>
       </c>
-      <c r="C247" s="105">
+      <c r="C247" s="109">
         <v>76146.87</v>
       </c>
-      <c r="D247" s="104">
+      <c r="D247" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="108">
+      <c r="A248" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B248" s="104" t="s">
+      <c r="B248" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C248" s="105">
+      <c r="C248" s="109">
         <v>53422.92</v>
       </c>
-      <c r="D248" s="104">
+      <c r="D248" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="108">
+      <c r="A249" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B249" s="104" t="s">
+      <c r="B249" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C249" s="105">
-        <v>0</v>
-      </c>
-      <c r="D249" s="104">
+      <c r="C249" s="109">
+        <v>0</v>
+      </c>
+      <c r="D249" s="108">
         <v>9820</v>
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="108">
+      <c r="A250" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B250" s="104" t="s">
+      <c r="B250" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C250" s="105">
-        <v>0</v>
-      </c>
-      <c r="D250" s="104">
+      <c r="C250" s="109">
+        <v>0</v>
+      </c>
+      <c r="D250" s="108">
         <v>5421.77</v>
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="108">
+      <c r="A251" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B251" s="104" t="s">
+      <c r="B251" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C251" s="105">
-        <v>0</v>
-      </c>
-      <c r="D251" s="104">
+      <c r="C251" s="109">
+        <v>0</v>
+      </c>
+      <c r="D251" s="108">
         <v>17836</v>
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="108">
+      <c r="A252" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B252" s="104" t="s">
+      <c r="B252" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C252" s="105">
-        <v>0</v>
-      </c>
-      <c r="D252" s="104">
+      <c r="C252" s="109">
+        <v>0</v>
+      </c>
+      <c r="D252" s="108">
         <v>419.58</v>
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="108">
+      <c r="A253" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B253" s="104" t="s">
+      <c r="B253" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C253" s="105">
-        <v>0</v>
-      </c>
-      <c r="D253" s="104">
+      <c r="C253" s="109">
+        <v>0</v>
+      </c>
+      <c r="D253" s="108">
         <v>3200</v>
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="108">
+      <c r="A254" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B254" s="104" t="s">
+      <c r="B254" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C254" s="105">
-        <v>0</v>
-      </c>
-      <c r="D254" s="104">
+      <c r="C254" s="109">
+        <v>0</v>
+      </c>
+      <c r="D254" s="108">
         <v>7040.67</v>
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="108">
+      <c r="A255" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B255" s="104" t="s">
+      <c r="B255" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C255" s="105">
-        <v>0</v>
-      </c>
-      <c r="D255" s="104">
+      <c r="C255" s="109">
+        <v>0</v>
+      </c>
+      <c r="D255" s="108">
         <v>500</v>
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="108">
+      <c r="A256" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B256" s="104" t="s">
+      <c r="B256" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C256" s="105">
-        <v>0</v>
-      </c>
-      <c r="D256" s="104">
+      <c r="C256" s="109">
+        <v>0</v>
+      </c>
+      <c r="D256" s="108">
         <v>2860</v>
       </c>
     </row>
     <row r="257" spans="1:7">
-      <c r="A257" s="108">
+      <c r="A257" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B257" s="104" t="s">
+      <c r="B257" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C257" s="105">
-        <v>0</v>
-      </c>
-      <c r="D257" s="104">
+      <c r="C257" s="109">
+        <v>0</v>
+      </c>
+      <c r="D257" s="108">
         <v>8618.7000000000007</v>
       </c>
-      <c r="F257" s="100" t="s">
+      <c r="F257" s="103" t="s">
         <v>1033</v>
       </c>
-      <c r="G257" s="109">
+      <c r="G257" s="110">
         <f>+C180</f>
         <v>10450901.26</v>
       </c>
     </row>
     <row r="258" spans="1:7">
-      <c r="A258" s="108">
+      <c r="A258" s="107">
         <v>201070101003</v>
       </c>
-      <c r="B258" s="104" t="s">
+      <c r="B258" s="108" t="s">
         <v>660</v>
       </c>
-      <c r="C258" s="105">
-        <v>0</v>
-      </c>
-      <c r="D258" s="104">
+      <c r="C258" s="109">
+        <v>0</v>
+      </c>
+      <c r="D258" s="108">
         <v>-2293.8000000000002</v>
       </c>
-      <c r="F258" s="100" t="s">
+      <c r="F258" s="103" t="s">
         <v>1032</v>
       </c>
-      <c r="G258" s="109">
+      <c r="G258" s="110">
         <f>+C259</f>
         <v>788878.68</v>
       </c>
     </row>
     <row r="259" spans="1:7">
-      <c r="A259" s="108">
+      <c r="A259" s="107">
         <v>202</v>
       </c>
-      <c r="B259" s="104" t="s">
+      <c r="B259" s="108" t="s">
         <v>661</v>
       </c>
-      <c r="C259" s="105">
+      <c r="C259" s="109">
         <v>788878.68</v>
       </c>
-      <c r="D259" s="104">
-        <v>0</v>
-      </c>
-      <c r="F259" s="100" t="s">
+      <c r="D259" s="108">
+        <v>0</v>
+      </c>
+      <c r="F259" s="103" t="s">
         <v>1031</v>
       </c>
-      <c r="G259" s="109">
+      <c r="G259" s="110">
         <f>+C269</f>
         <v>8605494.1300000008</v>
       </c>
     </row>
     <row r="260" spans="1:7">
-      <c r="A260" s="108">
+      <c r="A260" s="107">
         <v>20204</v>
       </c>
-      <c r="B260" s="104" t="s">
+      <c r="B260" s="108" t="s">
         <v>664</v>
       </c>
-      <c r="C260" s="105">
+      <c r="C260" s="109">
         <v>294124.48</v>
       </c>
-      <c r="D260" s="104">
-        <v>0</v>
-      </c>
-      <c r="G260" s="109">
+      <c r="D260" s="108">
+        <v>0</v>
+      </c>
+      <c r="G260" s="110">
         <f>SUM(G257:G259)</f>
         <v>19845274.07</v>
       </c>
     </row>
     <row r="261" spans="1:7">
-      <c r="A261" s="108">
+      <c r="A261" s="107">
         <v>2020401</v>
       </c>
-      <c r="B261" s="104" t="s">
+      <c r="B261" s="108" t="s">
         <v>665</v>
       </c>
-      <c r="C261" s="105">
+      <c r="C261" s="109">
         <v>294124.48</v>
       </c>
-      <c r="D261" s="104">
+      <c r="D261" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:7">
-      <c r="A262" s="108">
+      <c r="A262" s="107">
         <v>202040101</v>
       </c>
-      <c r="B262" s="104" t="s">
+      <c r="B262" s="108" t="s">
         <v>665</v>
       </c>
-      <c r="C262" s="105">
+      <c r="C262" s="109">
         <v>294124.48</v>
       </c>
-      <c r="D262" s="104">
+      <c r="D262" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:7">
-      <c r="A263" s="108">
+      <c r="A263" s="107">
         <v>202040101001</v>
       </c>
-      <c r="B263" s="104" t="s">
+      <c r="B263" s="108" t="s">
         <v>666</v>
       </c>
-      <c r="C263" s="105">
+      <c r="C263" s="109">
         <v>294124.48</v>
       </c>
-      <c r="D263" s="104">
+      <c r="D263" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
-      <c r="A264" s="108">
+      <c r="A264" s="107">
         <v>20205</v>
       </c>
-      <c r="B264" s="104" t="s">
+      <c r="B264" s="108" t="s">
         <v>667</v>
       </c>
-      <c r="C264" s="105">
+      <c r="C264" s="109">
         <v>494754.2</v>
       </c>
-      <c r="D264" s="104">
+      <c r="D264" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
-      <c r="A265" s="108">
+      <c r="A265" s="107">
         <v>2020501</v>
       </c>
-      <c r="B265" s="104" t="s">
+      <c r="B265" s="108" t="s">
         <v>668</v>
       </c>
-      <c r="C265" s="105">
+      <c r="C265" s="109">
         <v>494754.2</v>
       </c>
-      <c r="D265" s="104">
+      <c r="D265" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:7">
-      <c r="A266" s="108">
+      <c r="A266" s="107">
         <v>202050101</v>
       </c>
-      <c r="B266" s="104" t="s">
+      <c r="B266" s="108" t="s">
         <v>668</v>
       </c>
-      <c r="C266" s="105">
+      <c r="C266" s="109">
         <v>494754.2</v>
       </c>
-      <c r="D266" s="104">
+      <c r="D266" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:7">
-      <c r="A267" s="108">
+      <c r="A267" s="107">
         <v>202050101001</v>
       </c>
-      <c r="B267" s="104" t="s">
+      <c r="B267" s="108" t="s">
         <v>669</v>
       </c>
-      <c r="C267" s="105">
+      <c r="C267" s="109">
         <v>382416.57</v>
       </c>
-      <c r="D267" s="104">
+      <c r="D267" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:7">
-      <c r="A268" s="108">
+      <c r="A268" s="107">
         <v>202050101002</v>
       </c>
-      <c r="B268" s="104" t="s">
+      <c r="B268" s="108" t="s">
         <v>670</v>
       </c>
-      <c r="C268" s="105">
+      <c r="C268" s="109">
         <v>112337.63</v>
       </c>
-      <c r="D268" s="104">
+      <c r="D268" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:7">
-      <c r="A269" s="108">
+      <c r="A269" s="107">
         <v>3</v>
       </c>
-      <c r="B269" s="104" t="s">
+      <c r="B269" s="108" t="s">
         <v>671</v>
       </c>
-      <c r="C269" s="105">
+      <c r="C269" s="109">
         <v>8605494.1300000008</v>
       </c>
-      <c r="D269" s="104">
+      <c r="D269" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:7">
-      <c r="A270" s="108">
+      <c r="A270" s="107">
         <v>301</v>
       </c>
-      <c r="B270" s="104" t="s">
+      <c r="B270" s="108" t="s">
         <v>672</v>
       </c>
-      <c r="C270" s="105">
+      <c r="C270" s="109">
         <v>1608300</v>
       </c>
-      <c r="D270" s="104">
+      <c r="D270" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:7">
-      <c r="A271" s="108">
+      <c r="A271" s="107">
         <v>30101</v>
       </c>
-      <c r="B271" s="104" t="s">
+      <c r="B271" s="108" t="s">
         <v>673</v>
       </c>
-      <c r="C271" s="105">
+      <c r="C271" s="109">
         <v>1608300</v>
       </c>
-      <c r="D271" s="104">
+      <c r="D271" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:7">
-      <c r="A272" s="108">
+      <c r="A272" s="107">
         <v>3010101</v>
       </c>
-      <c r="B272" s="104" t="s">
+      <c r="B272" s="108" t="s">
         <v>673</v>
       </c>
-      <c r="C272" s="105">
+      <c r="C272" s="109">
         <v>1608300</v>
       </c>
-      <c r="D272" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="108">
+      <c r="D272" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="107">
         <v>301010101</v>
       </c>
-      <c r="B273" s="104" t="s">
+      <c r="B273" s="108" t="s">
         <v>673</v>
       </c>
-      <c r="C273" s="105">
+      <c r="C273" s="109">
         <v>1608300</v>
       </c>
-      <c r="D273" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="108">
+      <c r="D273" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="107">
         <v>301010101001</v>
       </c>
-      <c r="B274" s="104" t="s">
+      <c r="B274" s="108" t="s">
         <v>674</v>
       </c>
-      <c r="C274" s="105">
+      <c r="C274" s="109">
         <v>1608300</v>
       </c>
-      <c r="D274" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="108">
+      <c r="D274" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="107">
         <v>304</v>
       </c>
-      <c r="B275" s="104" t="s">
+      <c r="B275" s="108" t="s">
         <v>675</v>
       </c>
-      <c r="C275" s="105">
+      <c r="C275" s="109">
         <v>720798.66</v>
       </c>
-      <c r="D275" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="108">
+      <c r="D275" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="107">
         <v>30401</v>
       </c>
-      <c r="B276" s="104" t="s">
+      <c r="B276" s="108" t="s">
         <v>676</v>
       </c>
-      <c r="C276" s="105">
+      <c r="C276" s="109">
         <v>713799.1</v>
       </c>
-      <c r="D276" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="108">
+      <c r="D276" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
+      <c r="A277" s="107">
         <v>3040101</v>
       </c>
-      <c r="B277" s="104" t="s">
+      <c r="B277" s="108" t="s">
         <v>676</v>
       </c>
-      <c r="C277" s="105">
+      <c r="C277" s="109">
         <v>713799.1</v>
       </c>
-      <c r="D277" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="108">
+      <c r="D277" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
+      <c r="A278" s="107">
         <v>304010101</v>
       </c>
-      <c r="B278" s="104" t="s">
+      <c r="B278" s="108" t="s">
         <v>676</v>
       </c>
-      <c r="C278" s="105">
+      <c r="C278" s="109">
         <v>713799.1</v>
       </c>
-      <c r="D278" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="108">
+      <c r="D278" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="107">
         <v>304010101001</v>
       </c>
-      <c r="B279" s="104" t="s">
+      <c r="B279" s="108" t="s">
         <v>677</v>
       </c>
-      <c r="C279" s="105">
+      <c r="C279" s="109">
         <v>713799.1</v>
       </c>
-      <c r="D279" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="108">
+      <c r="D279" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="107">
         <v>30402</v>
       </c>
-      <c r="B280" s="104" t="s">
+      <c r="B280" s="108" t="s">
         <v>678</v>
       </c>
-      <c r="C280" s="105">
+      <c r="C280" s="109">
         <v>6999.56</v>
       </c>
-      <c r="D280" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="108">
+      <c r="D280" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="107">
         <v>3040201</v>
       </c>
-      <c r="B281" s="104" t="s">
+      <c r="B281" s="108" t="s">
         <v>679</v>
       </c>
-      <c r="C281" s="105">
+      <c r="C281" s="109">
         <v>6999.56</v>
       </c>
-      <c r="D281" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="108">
+      <c r="D281" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="107">
         <v>304020101</v>
       </c>
-      <c r="B282" s="104" t="s">
+      <c r="B282" s="108" t="s">
         <v>680</v>
       </c>
-      <c r="C282" s="105">
+      <c r="C282" s="109">
         <v>6999.56</v>
       </c>
-      <c r="D282" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="108">
+      <c r="D282" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="107">
         <v>304020101001</v>
       </c>
-      <c r="B283" s="104" t="s">
+      <c r="B283" s="108" t="s">
         <v>681</v>
       </c>
-      <c r="C283" s="105">
+      <c r="C283" s="109">
         <v>6999.56</v>
       </c>
-      <c r="D283" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="108">
+      <c r="D283" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="107">
         <v>305</v>
       </c>
-      <c r="B284" s="104" t="s">
+      <c r="B284" s="108" t="s">
         <v>682</v>
       </c>
-      <c r="C284" s="105">
+      <c r="C284" s="125">
         <v>110726.89</v>
       </c>
-      <c r="D284" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="108">
+      <c r="D284" s="108">
+        <v>0</v>
+      </c>
+      <c r="E284" s="103" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H284" s="110">
+        <f>+C292</f>
+        <v>64643.040000000001</v>
+      </c>
+      <c r="I284" s="103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="107">
         <v>30502</v>
       </c>
-      <c r="B285" s="104" t="s">
+      <c r="B285" s="108" t="s">
         <v>683</v>
       </c>
-      <c r="C285" s="105">
+      <c r="C285" s="109">
         <v>27785.96</v>
       </c>
-      <c r="D285" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="108">
+      <c r="D285" s="108">
+        <v>0</v>
+      </c>
+      <c r="E285" s="103" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H285" s="110">
+        <f>+C285</f>
+        <v>27785.96</v>
+      </c>
+      <c r="I285" s="103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="107">
         <v>3050201</v>
       </c>
-      <c r="B286" s="104" t="s">
+      <c r="B286" s="108" t="s">
         <v>683</v>
       </c>
-      <c r="C286" s="105">
+      <c r="C286" s="109">
         <v>27785.96</v>
       </c>
-      <c r="D286" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="108">
+      <c r="D286" s="108">
+        <v>0</v>
+      </c>
+      <c r="E286" s="103" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H286" s="110">
+        <f>+C293</f>
+        <v>18297.89</v>
+      </c>
+      <c r="I286" s="103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="107">
         <v>305020101</v>
       </c>
-      <c r="B287" s="104" t="s">
+      <c r="B287" s="108" t="s">
         <v>683</v>
       </c>
-      <c r="C287" s="105">
+      <c r="C287" s="109">
         <v>27785.96</v>
       </c>
-      <c r="D287" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="108">
+      <c r="D287" s="108">
+        <v>0</v>
+      </c>
+      <c r="E287" s="103" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H287" s="110">
+        <f>+C298</f>
+        <v>6960151.6900000004</v>
+      </c>
+      <c r="I287" s="103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="A288" s="107">
         <v>305020101001</v>
       </c>
-      <c r="B288" s="104" t="s">
+      <c r="B288" s="108" t="s">
         <v>684</v>
       </c>
-      <c r="C288" s="105">
+      <c r="C288" s="109">
         <v>27785.96</v>
       </c>
-      <c r="D288" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="108">
+      <c r="D288" s="108">
+        <v>0</v>
+      </c>
+      <c r="E288" s="103" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H288" s="110">
+        <f>+C300</f>
+        <v>971338.87</v>
+      </c>
+      <c r="I288" s="103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
+      <c r="A289" s="107">
         <v>30504</v>
       </c>
-      <c r="B289" s="104" t="s">
+      <c r="B289" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="C289" s="105">
+      <c r="C289" s="109">
         <v>82940.929999999993</v>
       </c>
-      <c r="D289" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="108">
+      <c r="D289" s="108">
+        <v>0</v>
+      </c>
+      <c r="E289" s="103" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H289" s="110">
+        <f>+C299</f>
+        <v>-284904.99</v>
+      </c>
+      <c r="I289" s="103" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="107">
         <v>3050401</v>
       </c>
-      <c r="B290" s="104" t="s">
+      <c r="B290" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="C290" s="105">
+      <c r="C290" s="109">
         <v>82940.929999999993</v>
       </c>
-      <c r="D290" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="108">
+      <c r="D290" s="108">
+        <v>0</v>
+      </c>
+      <c r="E290" s="103" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H290" s="110">
+        <f>SUM(H284:H289)</f>
+        <v>7757312.46</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="107">
         <v>305040101</v>
       </c>
-      <c r="B291" s="104" t="s">
+      <c r="B291" s="108" t="s">
         <v>685</v>
       </c>
-      <c r="C291" s="105">
+      <c r="C291" s="109">
         <v>82940.929999999993</v>
       </c>
-      <c r="D291" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="108">
+      <c r="D291" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="107">
         <v>305040101001</v>
       </c>
-      <c r="B292" s="104" t="s">
+      <c r="B292" s="108" t="s">
         <v>686</v>
       </c>
-      <c r="C292" s="105">
+      <c r="C292" s="109">
         <v>64643.040000000001</v>
       </c>
-      <c r="D292" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="108">
+      <c r="D292" s="108">
+        <v>0</v>
+      </c>
+      <c r="E292" s="103" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H292" s="110">
+        <v>7834868</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="107">
         <v>305040101002</v>
       </c>
-      <c r="B293" s="104" t="s">
+      <c r="B293" s="108" t="s">
         <v>687</v>
       </c>
-      <c r="C293" s="105">
+      <c r="C293" s="109">
         <v>18297.89</v>
       </c>
-      <c r="D293" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="108">
+      <c r="D293" s="108">
+        <v>0</v>
+      </c>
+      <c r="E293" s="103" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H293" s="110">
+        <f>+H292-H290</f>
+        <v>77555.540000000037</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9">
+      <c r="A294" s="107">
         <v>306</v>
       </c>
-      <c r="B294" s="104" t="s">
+      <c r="B294" s="108" t="s">
         <v>688</v>
       </c>
-      <c r="C294" s="105">
+      <c r="C294" s="109">
         <v>7646585.5700000003</v>
       </c>
-      <c r="D294" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="108">
+      <c r="D294" s="108">
+        <v>0</v>
+      </c>
+      <c r="H294" s="110"/>
+    </row>
+    <row r="295" spans="1:9">
+      <c r="A295" s="107">
         <v>30601</v>
       </c>
-      <c r="B295" s="104" t="s">
+      <c r="B295" s="108" t="s">
         <v>688</v>
       </c>
-      <c r="C295" s="105">
+      <c r="C295" s="109">
         <v>6675246.7000000002</v>
       </c>
-      <c r="D295" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="108">
+      <c r="D295" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="107">
         <v>3060101</v>
       </c>
-      <c r="B296" s="104" t="s">
+      <c r="B296" s="108" t="s">
         <v>688</v>
       </c>
-      <c r="C296" s="105">
+      <c r="C296" s="109">
         <v>6675246.7000000002</v>
       </c>
-      <c r="D296" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="108">
+      <c r="D296" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="107">
         <v>306010101</v>
       </c>
-      <c r="B297" s="104" t="s">
+      <c r="B297" s="108" t="s">
         <v>689</v>
       </c>
-      <c r="C297" s="105">
+      <c r="C297" s="109">
         <v>6675246.7000000002</v>
       </c>
-      <c r="D297" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="108">
+      <c r="D297" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="107">
         <v>306010101001</v>
       </c>
-      <c r="B298" s="104" t="s">
+      <c r="B298" s="108" t="s">
         <v>690</v>
       </c>
-      <c r="C298" s="105">
+      <c r="C298" s="125">
         <v>6960151.6900000004</v>
       </c>
-      <c r="D298" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="108">
+      <c r="D298" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="107">
         <v>306010101003</v>
       </c>
-      <c r="B299" s="104" t="s">
+      <c r="B299" s="108" t="s">
         <v>691</v>
       </c>
-      <c r="C299" s="105">
+      <c r="C299" s="125">
         <v>-284904.99</v>
       </c>
-      <c r="D299" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="108">
+      <c r="D299" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="A300" s="107">
         <v>30602</v>
       </c>
-      <c r="B300" s="104" t="s">
+      <c r="B300" s="108" t="s">
         <v>692</v>
       </c>
-      <c r="C300" s="105">
+      <c r="C300" s="125">
         <v>971338.87</v>
       </c>
-      <c r="D300" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="108">
+      <c r="D300" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
+      <c r="A301" s="107">
         <v>3060201</v>
       </c>
-      <c r="B301" s="104" t="s">
+      <c r="B301" s="108" t="s">
         <v>692</v>
       </c>
-      <c r="C301" s="105">
+      <c r="C301" s="109">
         <v>971338.87</v>
       </c>
-      <c r="D301" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="108">
+      <c r="D301" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="107">
         <v>306020101</v>
       </c>
-      <c r="B302" s="104" t="s">
+      <c r="B302" s="108" t="s">
         <v>692</v>
       </c>
-      <c r="C302" s="105">
+      <c r="C302" s="109">
         <v>971338.87</v>
       </c>
-      <c r="D302" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="108">
+      <c r="D302" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="107">
         <v>306020101001</v>
       </c>
-      <c r="B303" s="104" t="s">
+      <c r="B303" s="108" t="s">
         <v>693</v>
       </c>
-      <c r="C303" s="105">
+      <c r="C303" s="109">
         <v>971338.87</v>
       </c>
-      <c r="D303" s="104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="108">
+      <c r="D303" s="108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="107">
         <v>307</v>
       </c>
-      <c r="B304" s="104" t="s">
+      <c r="B304" s="108" t="s">
         <v>694</v>
       </c>
-      <c r="C304" s="105">
+      <c r="C304" s="109">
         <v>-1480916.99</v>
       </c>
-      <c r="D304" s="104">
+      <c r="D304" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="108">
+      <c r="A305" s="107">
         <v>30701</v>
       </c>
-      <c r="B305" s="104" t="s">
+      <c r="B305" s="108" t="s">
         <v>694</v>
       </c>
-      <c r="C305" s="105">
+      <c r="C305" s="109">
         <v>-1480916.99</v>
       </c>
-      <c r="D305" s="104">
+      <c r="D305" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="108">
+      <c r="A306" s="107">
         <v>3070101</v>
       </c>
-      <c r="B306" s="104" t="s">
+      <c r="B306" s="108" t="s">
         <v>694</v>
       </c>
-      <c r="C306" s="105">
+      <c r="C306" s="109">
         <v>-1480916.99</v>
       </c>
-      <c r="D306" s="104">
+      <c r="D306" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="108">
+      <c r="A307" s="107">
         <v>307010101</v>
       </c>
-      <c r="B307" s="104" t="s">
+      <c r="B307" s="108" t="s">
         <v>689</v>
       </c>
-      <c r="C307" s="105">
+      <c r="C307" s="109">
         <v>-1480916.99</v>
       </c>
-      <c r="D307" s="104">
+      <c r="D307" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:4">
-      <c r="A308" s="108">
+      <c r="A308" s="107">
         <v>307010101001</v>
       </c>
-      <c r="B308" s="104" t="s">
+      <c r="B308" s="108" t="s">
         <v>695</v>
       </c>
-      <c r="C308" s="105">
+      <c r="C308" s="109">
         <v>-1480916.99</v>
       </c>
-      <c r="D308" s="104">
+      <c r="D308" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:4">
-      <c r="A309" s="108">
+      <c r="A309" s="107">
         <v>91</v>
       </c>
-      <c r="B309" s="104" t="s">
+      <c r="B309" s="108" t="s">
         <v>696</v>
       </c>
-      <c r="C309" s="105">
+      <c r="C309" s="109">
         <v>48000</v>
       </c>
-      <c r="D309" s="104">
+      <c r="D309" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:4">
-      <c r="A310" s="108">
+      <c r="A310" s="107">
         <v>9101</v>
       </c>
-      <c r="B310" s="104" t="s">
+      <c r="B310" s="108" t="s">
         <v>696</v>
       </c>
-      <c r="C310" s="105">
+      <c r="C310" s="109">
         <v>48000</v>
       </c>
-      <c r="D310" s="104">
+      <c r="D310" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="108">
+      <c r="A311" s="107">
         <v>910101</v>
       </c>
-      <c r="B311" s="104" t="s">
+      <c r="B311" s="108" t="s">
         <v>696</v>
       </c>
-      <c r="C311" s="105">
+      <c r="C311" s="109">
         <v>48000</v>
       </c>
-      <c r="D311" s="104">
+      <c r="D311" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:4">
-      <c r="A312" s="108">
+      <c r="A312" s="107">
         <v>9101010001</v>
       </c>
-      <c r="B312" s="104" t="s">
+      <c r="B312" s="108" t="s">
         <v>697</v>
       </c>
-      <c r="C312" s="105">
+      <c r="C312" s="109">
         <v>48000</v>
       </c>
-      <c r="D312" s="104">
+      <c r="D312" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:4">
-      <c r="A313" s="108">
+      <c r="A313" s="107">
         <v>9101010001</v>
       </c>
-      <c r="B313" s="104" t="s">
+      <c r="B313" s="108" t="s">
         <v>697</v>
       </c>
-      <c r="C313" s="105">
-        <v>0</v>
-      </c>
-      <c r="D313" s="104">
+      <c r="C313" s="109">
+        <v>0</v>
+      </c>
+      <c r="D313" s="108">
         <v>48000</v>
       </c>
     </row>
     <row r="314" spans="1:4">
-      <c r="A314" s="108">
+      <c r="A314" s="107">
         <v>92</v>
       </c>
-      <c r="B314" s="104" t="s">
+      <c r="B314" s="108" t="s">
         <v>698</v>
       </c>
-      <c r="C314" s="105">
+      <c r="C314" s="109">
         <v>-48000</v>
       </c>
-      <c r="D314" s="104">
+      <c r="D314" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:4">
-      <c r="A315" s="108">
+      <c r="A315" s="107">
         <v>9201</v>
       </c>
-      <c r="B315" s="104" t="s">
+      <c r="B315" s="108" t="s">
         <v>698</v>
       </c>
-      <c r="C315" s="105">
+      <c r="C315" s="109">
         <v>-48000</v>
       </c>
-      <c r="D315" s="104">
+      <c r="D315" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:4">
-      <c r="A316" s="108">
+      <c r="A316" s="107">
         <v>920101</v>
       </c>
-      <c r="B316" s="104" t="s">
+      <c r="B316" s="108" t="s">
         <v>698</v>
       </c>
-      <c r="C316" s="105">
+      <c r="C316" s="109">
         <v>-48000</v>
       </c>
-      <c r="D316" s="104">
+      <c r="D316" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:4">
-      <c r="A317" s="108">
+      <c r="A317" s="107">
         <v>9201010001</v>
       </c>
-      <c r="B317" s="104" t="s">
+      <c r="B317" s="108" t="s">
         <v>699</v>
       </c>
-      <c r="C317" s="105">
+      <c r="C317" s="109">
         <v>-48000</v>
       </c>
-      <c r="D317" s="104">
+      <c r="D317" s="108">
         <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:4">
-      <c r="A318" s="108">
+      <c r="A318" s="107">
         <v>9201010001</v>
       </c>
-      <c r="B318" s="104" t="s">
+      <c r="B318" s="108" t="s">
         <v>699</v>
       </c>
-      <c r="C318" s="105">
-        <v>0</v>
-      </c>
-      <c r="D318" s="104">
+      <c r="C318" s="109">
+        <v>0</v>
+      </c>
+      <c r="D318" s="108">
         <v>-48000</v>
       </c>
     </row>
@@ -10908,44 +11064,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="121" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="121" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="122" t="s">
         <v>721</v>
       </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="60" t="s">
@@ -13999,44 +14155,44 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="121" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="121" t="s">
         <v>489</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="122" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="60" t="s">
@@ -18311,11 +18467,11 @@
       <c r="A1" s="69" t="s">
         <v>949</v>
       </c>
-      <c r="M1" s="123" t="s">
+      <c r="M1" s="124" t="s">
         <v>950</v>
       </c>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
     </row>
     <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="71" t="s">
@@ -18347,16 +18503,16 @@
       <c r="O3" s="72"/>
     </row>
     <row r="4" spans="1:15" ht="24.75">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>487</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="120"/>
+      <c r="H4" s="120"/>
       <c r="M4" s="72"/>
       <c r="N4" s="73">
         <f>+N2+N3</f>
@@ -18365,16 +18521,16 @@
       <c r="O4" s="72"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="121" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="120"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
       <c r="M5" s="72"/>
       <c r="N5" s="75">
         <f>+N4+[1]CTE2020!F48</f>
@@ -18385,16 +18541,16 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75">
-      <c r="A6" s="120" t="s">
+      <c r="A6" s="121" t="s">
         <v>700</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
+      <c r="B6" s="121"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
       <c r="M6" s="72"/>
       <c r="N6" s="76">
         <f>+N5*0.2</f>
@@ -18415,16 +18571,16 @@
       <c r="O7" s="72"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="122" t="s">
         <v>490</v>
       </c>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
       <c r="M8" s="77"/>
       <c r="N8" s="77"/>
       <c r="O8" s="77"/>
@@ -18456,8 +18612,8 @@
       <c r="G10" s="61" t="s">
         <v>495</v>
       </c>
-      <c r="I10" s="122"/>
-      <c r="J10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="79">
